--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>MMMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E8" s="3">
         <v>9300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
-        <v>6900</v>
-      </c>
       <c r="H8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="I8" s="3">
         <v>8200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>12400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>5400</v>
       </c>
       <c r="O8" s="3">
         <v>5400</v>
       </c>
       <c r="P8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E9" s="3">
         <v>6400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>8100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2700</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2400</v>
       </c>
       <c r="G10" s="3">
         <v>2400</v>
       </c>
       <c r="H10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,25 +922,28 @@
         <v>0</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
         <v>0</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -995,8 +1015,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>10</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1007,14 +1027,17 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,57 +1098,61 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E18" s="3">
         <v>500</v>
@@ -1131,37 +1161,40 @@
         <v>500</v>
       </c>
       <c r="G18" s="3">
+        <v>500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
+        <v>500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
-        <v>500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
+        <v>600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>200</v>
+      </c>
+      <c r="P18" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1211,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1208,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>-100</v>
@@ -1217,62 +1251,68 @@
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E21" s="3">
         <v>600</v>
       </c>
       <c r="F21" s="3">
+        <v>600</v>
+      </c>
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
-        <v>500</v>
-      </c>
       <c r="H21" s="3">
+        <v>400</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
@@ -1281,16 +1321,16 @@
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>200</v>
       </c>
       <c r="I22" s="3">
+        <v>200</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
@@ -1299,19 +1339,22 @@
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1325,37 +1368,40 @@
         <v>400</v>
       </c>
       <c r="G23" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1444,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,8 +1491,11 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1457,37 +1509,40 @@
         <v>400</v>
       </c>
       <c r="G26" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1501,37 +1556,40 @@
         <v>400</v>
       </c>
       <c r="G27" s="3">
+        <v>400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
+        <v>300</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
-        <v>400</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>300</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1773,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1736,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>100</v>
@@ -1745,13 +1815,16 @@
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1765,37 +1838,40 @@
         <v>400</v>
       </c>
       <c r="G33" s="3">
+        <v>400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
+        <v>300</v>
+      </c>
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
-        <v>400</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>300</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,8 +1914,11 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1853,86 +1932,92 @@
         <v>400</v>
       </c>
       <c r="G35" s="3">
+        <v>400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>300</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
-        <v>400</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>300</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,34 +2053,35 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
@@ -2003,16 +2090,19 @@
         <v>600</v>
       </c>
       <c r="N41" s="3">
+        <v>600</v>
+      </c>
+      <c r="O41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>700</v>
       </c>
       <c r="P41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,96 +2145,105 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1500</v>
       </c>
       <c r="F44" s="3">
         <v>1500</v>
       </c>
       <c r="G44" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="H44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I44" s="3">
         <v>1000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
       </c>
       <c r="O44" s="3">
+        <v>200</v>
+      </c>
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,28 +2251,28 @@
         <v>300</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2182,57 +2281,63 @@
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E46" s="3">
         <v>6100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I46" s="3">
         <v>4900</v>
       </c>
-      <c r="H46" s="3">
-        <v>4900</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2380,58 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="E48" s="3">
         <v>4400</v>
       </c>
       <c r="F48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2100</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1300</v>
       </c>
       <c r="N48" s="3">
         <v>1300</v>
       </c>
       <c r="O48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2474,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2481,22 +2601,25 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E54" s="3">
         <v>10500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9300</v>
       </c>
-      <c r="G54" s="3">
-        <v>7800</v>
-      </c>
       <c r="H54" s="3">
+        <v>7700</v>
+      </c>
+      <c r="I54" s="3">
         <v>8000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,57 +2749,61 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>600</v>
@@ -2681,34 +2815,37 @@
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2721,11 +2858,11 @@
       <c r="F59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>10</v>
+      <c r="G59" s="3">
+        <v>100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>10</v>
@@ -2733,8 +2870,8 @@
       <c r="J59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -2751,8 +2888,11 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2760,87 +2900,93 @@
         <v>4200</v>
       </c>
       <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
         <v>3800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3600</v>
       </c>
       <c r="G60" s="3">
         <v>3600</v>
       </c>
       <c r="H60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I60" s="3">
         <v>8000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>8600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4800</v>
+        <v>4000</v>
       </c>
       <c r="E61" s="3">
         <v>4800</v>
       </c>
       <c r="F61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G61" s="3">
         <v>5000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>5300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2851,13 +2997,13 @@
         <v>1400</v>
       </c>
       <c r="F62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>10</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>10</v>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>7700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-17600</v>
       </c>
       <c r="H72" s="3">
         <v>-17700</v>
       </c>
       <c r="I72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="J72" s="3">
         <v>-18000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-14600</v>
       </c>
       <c r="N72" s="3">
         <v>-14600</v>
       </c>
       <c r="O72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="P72" s="3">
         <v>-18400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1200</v>
       </c>
       <c r="H76" s="3">
         <v>-1300</v>
       </c>
       <c r="I76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,57 +3706,63 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3581,37 +3776,40 @@
         <v>400</v>
       </c>
       <c r="G81" s="3">
+        <v>400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
+        <v>300</v>
+      </c>
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
-        <v>400</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>300</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3826,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,7 +3836,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -3658,22 +3857,25 @@
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1300</v>
-      </c>
-      <c r="J89" s="3">
-        <v>100</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4184,46 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4313,11 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4325,46 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4381,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-400</v>
       </c>
       <c r="G100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,19 +4661,22 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>100</v>
@@ -4433,27 +4685,30 @@
         <v>100</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,231 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>8100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>5400</v>
       </c>
       <c r="P8" s="3">
         <v>5400</v>
       </c>
       <c r="Q8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E9" s="3">
         <v>7000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>8100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,25 +938,28 @@
         <v>0</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -989,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1018,8 +1037,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>10</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1030,14 +1049,17 @@
       <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,63 +1124,67 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>11800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
-      </c>
-      <c r="E18" s="3">
-        <v>500</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
@@ -1164,37 +1193,40 @@
         <v>500</v>
       </c>
       <c r="H18" s="3">
+        <v>500</v>
+      </c>
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
@@ -1254,68 +1287,74 @@
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
-      </c>
-      <c r="E21" s="3">
-        <v>600</v>
       </c>
       <c r="F21" s="3">
         <v>600</v>
       </c>
       <c r="G21" s="3">
+        <v>600</v>
+      </c>
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
-      </c>
-      <c r="E22" s="3">
-        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1324,16 +1363,16 @@
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
@@ -1342,24 +1381,27 @@
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E23" s="3">
         <v>400</v>
@@ -1371,37 +1413,40 @@
         <v>400</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,13 +1542,16 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E26" s="3">
         <v>400</v>
@@ -1512,42 +1563,45 @@
         <v>400</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E27" s="3">
         <v>400</v>
@@ -1559,37 +1613,40 @@
         <v>400</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1809,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
@@ -1818,18 +1887,21 @@
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E33" s="3">
         <v>400</v>
@@ -1841,37 +1913,40 @@
         <v>400</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,13 +1992,16 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E35" s="3">
         <v>400</v>
@@ -1935,89 +2013,95 @@
         <v>400</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,37 +2139,38 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>600</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
-      </c>
-      <c r="L41" s="3">
-        <v>600</v>
       </c>
       <c r="M41" s="3">
         <v>600</v>
@@ -2093,16 +2179,19 @@
         <v>600</v>
       </c>
       <c r="O41" s="3">
+        <v>600</v>
+      </c>
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>700</v>
       </c>
       <c r="Q41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2237,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2204,46 +2299,49 @@
         <v>1200</v>
       </c>
       <c r="E44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F44" s="3">
         <v>1700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1500</v>
       </c>
       <c r="G44" s="3">
         <v>1500</v>
       </c>
       <c r="H44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>1000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
       </c>
       <c r="P44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2254,28 +2352,28 @@
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2284,60 +2382,66 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E46" s="3">
         <v>5600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2487,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4400</v>
       </c>
       <c r="F48" s="3">
         <v>4400</v>
       </c>
       <c r="G48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2100</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1300</v>
       </c>
       <c r="O48" s="3">
         <v>1300</v>
       </c>
       <c r="P48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2604,22 +2723,25 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E54" s="3">
         <v>9900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>7700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,63 +2879,67 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E57" s="3">
         <v>3600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -2818,34 +2951,37 @@
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>4200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2862,10 +2998,10 @@
         <v>100</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>10</v>
@@ -2873,8 +3009,8 @@
       <c r="K59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -2891,107 +3027,116 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4200</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
         <v>4200</v>
       </c>
       <c r="F60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G60" s="3">
         <v>3800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3600</v>
       </c>
       <c r="H60" s="3">
         <v>3600</v>
       </c>
       <c r="I60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J60" s="3">
         <v>8000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E61" s="3">
         <v>4000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>4800</v>
       </c>
       <c r="F61" s="3">
         <v>4800</v>
       </c>
       <c r="G61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H61" s="3">
         <v>5000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>5300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E62" s="3">
         <v>1400</v>
@@ -3000,13 +3145,13 @@
         <v>1400</v>
       </c>
       <c r="G62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>10</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3597,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-17700</v>
       </c>
       <c r="I72" s="3">
         <v>-17700</v>
       </c>
       <c r="J72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-18000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-14600</v>
       </c>
       <c r="O72" s="3">
         <v>-14600</v>
       </c>
       <c r="P72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-18400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1300</v>
       </c>
       <c r="I76" s="3">
         <v>-1300</v>
       </c>
       <c r="J76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,65 +3897,71 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="E81" s="3">
         <v>400</v>
@@ -3779,37 +3973,40 @@
         <v>400</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,19 +4024,20 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -3860,22 +4058,25 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1300</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,43 +4407,46 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4328,43 +4557,46 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-400</v>
       </c>
       <c r="H100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,22 +4912,25 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
-      </c>
-      <c r="G102" s="3">
-        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>100</v>
@@ -4688,27 +4939,30 @@
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>7400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>5400</v>
       </c>
       <c r="Q8" s="3">
         <v>5400</v>
       </c>
       <c r="R8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E9" s="3">
         <v>7500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E10" s="3">
         <v>3600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>3000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,25 +955,28 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
-      </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
         <v>0</v>
       </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,8 +1060,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>10</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>10</v>
@@ -1052,14 +1072,17 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,69 +1151,73 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E17" s="3">
         <v>10100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>11800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>500</v>
       </c>
       <c r="G18" s="3">
         <v>500</v>
@@ -1196,37 +1226,40 @@
         <v>500</v>
       </c>
       <c r="I18" s="3">
+        <v>500</v>
+      </c>
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
@@ -1290,63 +1324,69 @@
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
-      </c>
-      <c r="F21" s="3">
-        <v>600</v>
       </c>
       <c r="G21" s="3">
         <v>600</v>
       </c>
       <c r="H21" s="3">
+        <v>600</v>
+      </c>
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,10 +1394,10 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>100</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
-      </c>
-      <c r="F22" s="3">
-        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1366,16 +1406,16 @@
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
-      </c>
-      <c r="L22" s="3">
-        <v>200</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
@@ -1384,27 +1424,30 @@
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
-      </c>
-      <c r="E23" s="3">
-        <v>400</v>
       </c>
       <c r="F23" s="3">
         <v>400</v>
@@ -1416,37 +1459,40 @@
         <v>400</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>300</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,16 +1594,19 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>700</v>
+      </c>
+      <c r="E26" s="3">
         <v>900</v>
-      </c>
-      <c r="E26" s="3">
-        <v>400</v>
       </c>
       <c r="F26" s="3">
         <v>400</v>
@@ -1566,45 +1618,48 @@
         <v>400</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>700</v>
+      </c>
+      <c r="E27" s="3">
         <v>900</v>
-      </c>
-      <c r="E27" s="3">
-        <v>400</v>
       </c>
       <c r="F27" s="3">
         <v>400</v>
@@ -1616,37 +1671,40 @@
         <v>400</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>300</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1881,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
@@ -1890,21 +1960,24 @@
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>700</v>
+      </c>
+      <c r="E33" s="3">
         <v>900</v>
-      </c>
-      <c r="E33" s="3">
-        <v>400</v>
       </c>
       <c r="F33" s="3">
         <v>400</v>
@@ -1916,37 +1989,40 @@
         <v>400</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>300</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,16 +2071,19 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>700</v>
+      </c>
+      <c r="E35" s="3">
         <v>900</v>
-      </c>
-      <c r="E35" s="3">
-        <v>400</v>
       </c>
       <c r="F35" s="3">
         <v>400</v>
@@ -2016,92 +2095,98 @@
         <v>400</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>300</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,40 +2226,41 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>600</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
-      </c>
-      <c r="M41" s="3">
-        <v>600</v>
       </c>
       <c r="N41" s="3">
         <v>600</v>
@@ -2182,16 +2269,19 @@
         <v>600</v>
       </c>
       <c r="P41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>400</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>700</v>
       </c>
       <c r="R41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,108 +2330,117 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="E44" s="3">
         <v>1200</v>
       </c>
       <c r="F44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G44" s="3">
         <v>1700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1500</v>
       </c>
       <c r="H44" s="3">
         <v>1500</v>
       </c>
       <c r="I44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J44" s="3">
         <v>1300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
       </c>
       <c r="Q44" s="3">
+        <v>200</v>
+      </c>
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2355,28 +2454,28 @@
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
@@ -2385,63 +2484,69 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E46" s="3">
         <v>7200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4400</v>
       </c>
       <c r="G48" s="3">
         <v>4400</v>
       </c>
       <c r="H48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2100</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1300</v>
       </c>
       <c r="P48" s="3">
         <v>1300</v>
       </c>
       <c r="Q48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R48" s="3">
         <v>1600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2726,22 +2846,25 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>400</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3" t="s">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>7700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,69 +3010,73 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>3800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>400</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -2954,34 +3088,37 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>4200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>3400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3001,10 +3138,10 @@
         <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>10</v>
@@ -3012,8 +3149,8 @@
       <c r="L59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3030,108 +3167,117 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E60" s="3">
         <v>4700</v>
-      </c>
-      <c r="E60" s="3">
-        <v>4200</v>
       </c>
       <c r="F60" s="3">
         <v>4200</v>
       </c>
       <c r="G60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H60" s="3">
         <v>3800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3600</v>
       </c>
       <c r="I60" s="3">
         <v>3600</v>
       </c>
       <c r="J60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K60" s="3">
         <v>8000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4000</v>
-      </c>
-      <c r="F61" s="3">
-        <v>4800</v>
       </c>
       <c r="G61" s="3">
         <v>4800</v>
       </c>
       <c r="H61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I61" s="3">
         <v>5000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>5300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>2700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3139,7 +3285,7 @@
         <v>1300</v>
       </c>
       <c r="E62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>1400</v>
@@ -3148,13 +3294,13 @@
         <v>1400</v>
       </c>
       <c r="H62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>10</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>10</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-17700</v>
       </c>
       <c r="J72" s="3">
         <v>-17700</v>
       </c>
       <c r="K72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="L72" s="3">
         <v>-18000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-18100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-14600</v>
       </c>
       <c r="P72" s="3">
         <v>-14600</v>
       </c>
       <c r="Q72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="R72" s="3">
         <v>-18400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-1300</v>
       </c>
       <c r="J76" s="3">
         <v>-1300</v>
       </c>
       <c r="K76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-2700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,71 +4089,77 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>700</v>
+      </c>
+      <c r="E81" s="3">
         <v>900</v>
-      </c>
-      <c r="E81" s="3">
-        <v>400</v>
       </c>
       <c r="F81" s="3">
         <v>400</v>
@@ -3976,37 +4171,40 @@
         <v>400</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>300</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,13 +4233,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
@@ -4061,22 +4260,25 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1300</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4410,43 +4631,46 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4560,43 +4790,46 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>-400</v>
       </c>
       <c r="I100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,25 +5164,28 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
@@ -4942,27 +5194,30 @@
         <v>100</v>
       </c>
       <c r="K102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>-100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>MMMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E8" s="3">
         <v>10400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>7400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>5400</v>
       </c>
       <c r="R8" s="3">
         <v>5400</v>
       </c>
       <c r="S8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E9" s="3">
         <v>7300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>5400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>4500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
         <v>3100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,25 +972,28 @@
         <v>0</v>
       </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
         <v>0</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1063,8 +1083,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1075,14 +1095,17 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,61 +1178,65 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>9600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>10100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>7600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>11800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,13 +1244,13 @@
         <v>800</v>
       </c>
       <c r="E18" s="3">
+        <v>800</v>
+      </c>
+      <c r="F18" s="3">
         <v>1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
-      </c>
-      <c r="G18" s="3">
-        <v>500</v>
       </c>
       <c r="H18" s="3">
         <v>500</v>
@@ -1229,37 +1259,40 @@
         <v>500</v>
       </c>
       <c r="J18" s="3">
+        <v>500</v>
+      </c>
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
@@ -1327,80 +1361,86 @@
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>600</v>
       </c>
       <c r="H21" s="3">
         <v>600</v>
       </c>
       <c r="I21" s="3">
+        <v>600</v>
+      </c>
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
-      </c>
-      <c r="G22" s="3">
-        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
@@ -1409,16 +1449,16 @@
         <v>100</v>
       </c>
       <c r="J22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>300</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
@@ -1427,19 +1467,22 @@
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1447,10 +1490,10 @@
         <v>700</v>
       </c>
       <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>900</v>
-      </c>
-      <c r="F23" s="3">
-        <v>400</v>
       </c>
       <c r="G23" s="3">
         <v>400</v>
@@ -1462,37 +1505,40 @@
         <v>400</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,10 +1658,10 @@
         <v>700</v>
       </c>
       <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>900</v>
-      </c>
-      <c r="F26" s="3">
-        <v>400</v>
       </c>
       <c r="G26" s="3">
         <v>400</v>
@@ -1621,37 +1673,40 @@
         <v>400</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,10 +1714,10 @@
         <v>700</v>
       </c>
       <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>900</v>
-      </c>
-      <c r="F27" s="3">
-        <v>400</v>
       </c>
       <c r="G27" s="3">
         <v>400</v>
@@ -1674,37 +1729,40 @@
         <v>400</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1954,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
@@ -1963,13 +2033,16 @@
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,10 +2050,10 @@
         <v>700</v>
       </c>
       <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>900</v>
-      </c>
-      <c r="F33" s="3">
-        <v>400</v>
       </c>
       <c r="G33" s="3">
         <v>400</v>
@@ -1992,37 +2065,40 @@
         <v>400</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,10 +2162,10 @@
         <v>700</v>
       </c>
       <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>900</v>
-      </c>
-      <c r="F35" s="3">
-        <v>400</v>
       </c>
       <c r="G35" s="3">
         <v>400</v>
@@ -2098,95 +2177,101 @@
         <v>400</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,43 +2313,44 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>600</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
@@ -2272,16 +2359,19 @@
         <v>600</v>
       </c>
       <c r="Q41" s="3">
+        <v>600</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
-      </c>
-      <c r="R41" s="3">
-        <v>700</v>
       </c>
       <c r="S41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,114 +2423,123 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>4400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3">
         <v>1800</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1200</v>
       </c>
       <c r="F44" s="3">
         <v>1200</v>
       </c>
       <c r="G44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H44" s="3">
         <v>1700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1500</v>
       </c>
       <c r="I44" s="3">
         <v>1500</v>
       </c>
       <c r="J44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
-      </c>
-      <c r="P44" s="3">
-        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>200</v>
       </c>
       <c r="R44" s="3">
+        <v>200</v>
+      </c>
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2457,28 +2556,28 @@
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2487,66 +2586,72 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E46" s="3">
         <v>6500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,84 +2703,90 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4400</v>
       </c>
       <c r="H48" s="3">
         <v>4400</v>
       </c>
       <c r="I48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2100</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1300</v>
       </c>
       <c r="Q48" s="3">
         <v>1300</v>
       </c>
       <c r="R48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S48" s="3">
         <v>1600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2849,22 +2969,25 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>400</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
-      <c r="S52" s="3" t="s">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>6800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,75 +3141,79 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3091,34 +3225,37 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>4200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>3400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3141,10 +3278,10 @@
         <v>100</v>
       </c>
       <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>10</v>
@@ -3152,8 +3289,8 @@
       <c r="M59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -3170,114 +3307,123 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>3100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>4200</v>
       </c>
       <c r="G60" s="3">
         <v>4200</v>
       </c>
       <c r="H60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I60" s="3">
         <v>3800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>3600</v>
       </c>
       <c r="J60" s="3">
         <v>3600</v>
       </c>
       <c r="K60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L60" s="3">
         <v>8000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>7200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E61" s="3">
         <v>3100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4000</v>
-      </c>
-      <c r="G61" s="3">
-        <v>4800</v>
       </c>
       <c r="H61" s="3">
         <v>4800</v>
       </c>
       <c r="I61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J61" s="3">
         <v>5000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>5300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>2700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3288,7 +3434,7 @@
         <v>1300</v>
       </c>
       <c r="F62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G62" s="3">
         <v>1400</v>
@@ -3297,13 +3443,13 @@
         <v>1400</v>
       </c>
       <c r="I62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>10</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>10</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>7400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>9500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>9300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>7700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-14500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-17700</v>
       </c>
       <c r="K72" s="3">
         <v>-17700</v>
       </c>
       <c r="L72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="M72" s="3">
         <v>-18000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-18100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-14600</v>
       </c>
       <c r="Q72" s="3">
         <v>-14600</v>
       </c>
       <c r="R72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="S72" s="3">
         <v>-18400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E76" s="3">
         <v>3600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-800</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-1300</v>
       </c>
       <c r="K76" s="3">
         <v>-1300</v>
       </c>
       <c r="L76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-1500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,10 +4354,10 @@
         <v>700</v>
       </c>
       <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>900</v>
-      </c>
-      <c r="F81" s="3">
-        <v>400</v>
       </c>
       <c r="G81" s="3">
         <v>400</v>
@@ -4174,37 +4369,40 @@
         <v>400</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4236,13 +4435,13 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
@@ -4263,22 +4462,25 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4634,43 +4855,46 @@
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4793,43 +5023,46 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>-400</v>
       </c>
       <c r="J100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,28 +5416,31 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>100</v>
@@ -5197,27 +5449,30 @@
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>-100</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>MMMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,270 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44135</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E8" s="3">
         <v>9900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11100</v>
       </c>
-      <c r="G8" s="3">
-        <v>10100</v>
-      </c>
       <c r="H8" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I8" s="3">
         <v>9300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>7400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>5400</v>
       </c>
       <c r="S8" s="3">
         <v>5400</v>
       </c>
       <c r="T8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E9" s="3">
         <v>6900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>5400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>8100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3600</v>
       </c>
-      <c r="G10" s="3">
-        <v>3100</v>
-      </c>
       <c r="H10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,25 +989,28 @@
         <v>0</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
         <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1106,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>10</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1098,14 +1118,17 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,81 +1205,85 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10100</v>
       </c>
-      <c r="G17" s="3">
-        <v>9500</v>
-      </c>
       <c r="H17" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I17" s="3">
         <v>8800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>11800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E18" s="3">
         <v>800</v>
       </c>
       <c r="F18" s="3">
+        <v>800</v>
+      </c>
+      <c r="G18" s="3">
         <v>1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
-      </c>
-      <c r="H18" s="3">
-        <v>500</v>
       </c>
       <c r="I18" s="3">
         <v>500</v>
@@ -1262,37 +1292,40 @@
         <v>500</v>
       </c>
       <c r="K18" s="3">
+        <v>500</v>
+      </c>
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1346,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
@@ -1364,86 +1398,92 @@
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>600</v>
       </c>
       <c r="I21" s="3">
         <v>600</v>
       </c>
       <c r="J21" s="3">
+        <v>600</v>
+      </c>
+      <c r="K21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
-      </c>
-      <c r="H22" s="3">
-        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
@@ -1452,16 +1492,16 @@
         <v>100</v>
       </c>
       <c r="K22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>200</v>
       </c>
       <c r="M22" s="3">
+        <v>200</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
@@ -1470,33 +1510,36 @@
         <v>200</v>
       </c>
       <c r="Q22" s="3">
+        <v>200</v>
+      </c>
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E23" s="3">
         <v>700</v>
       </c>
       <c r="F23" s="3">
+        <v>700</v>
+      </c>
+      <c r="G23" s="3">
         <v>900</v>
-      </c>
-      <c r="G23" s="3">
-        <v>400</v>
       </c>
       <c r="H23" s="3">
         <v>400</v>
@@ -1508,48 +1551,51 @@
         <v>400</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1557,11 +1603,11 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,22 +1698,25 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E26" s="3">
         <v>700</v>
       </c>
       <c r="F26" s="3">
+        <v>700</v>
+      </c>
+      <c r="G26" s="3">
         <v>900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>400</v>
       </c>
       <c r="H26" s="3">
         <v>400</v>
@@ -1676,51 +1728,54 @@
         <v>400</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E27" s="3">
         <v>700</v>
       </c>
       <c r="F27" s="3">
+        <v>700</v>
+      </c>
+      <c r="G27" s="3">
         <v>900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>400</v>
       </c>
       <c r="H27" s="3">
         <v>400</v>
@@ -1732,37 +1787,40 @@
         <v>400</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2052,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2027,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
@@ -2036,27 +2106,30 @@
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E33" s="3">
         <v>700</v>
       </c>
       <c r="F33" s="3">
+        <v>700</v>
+      </c>
+      <c r="G33" s="3">
         <v>900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>400</v>
       </c>
       <c r="H33" s="3">
         <v>400</v>
@@ -2068,37 +2141,40 @@
         <v>400</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,22 +2229,25 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E35" s="3">
         <v>700</v>
       </c>
       <c r="F35" s="3">
+        <v>700</v>
+      </c>
+      <c r="G35" s="3">
         <v>900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>400</v>
       </c>
       <c r="H35" s="3">
         <v>400</v>
@@ -2180,98 +2259,104 @@
         <v>400</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44135</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,46 +2400,47 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>600</v>
       </c>
       <c r="I41" s="3">
         <v>600</v>
       </c>
       <c r="J41" s="3">
+        <v>600</v>
+      </c>
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
-      </c>
-      <c r="O41" s="3">
-        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
@@ -2362,16 +2449,19 @@
         <v>600</v>
       </c>
       <c r="R41" s="3">
+        <v>600</v>
+      </c>
+      <c r="S41" s="3">
         <v>400</v>
-      </c>
-      <c r="S41" s="3">
-        <v>700</v>
       </c>
       <c r="T41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,125 +2516,134 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1800</v>
-      </c>
-      <c r="F44" s="3">
-        <v>1200</v>
       </c>
       <c r="G44" s="3">
         <v>1200</v>
       </c>
       <c r="H44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I44" s="3">
         <v>1700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1500</v>
       </c>
       <c r="J44" s="3">
         <v>1500</v>
       </c>
       <c r="K44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>200</v>
       </c>
       <c r="S44" s="3">
+        <v>200</v>
+      </c>
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
@@ -2559,28 +2658,28 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>300</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -2589,69 +2688,75 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
         <v>7300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>4700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,72 +2811,78 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4400</v>
       </c>
       <c r="I48" s="3">
         <v>4400</v>
       </c>
       <c r="J48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K48" s="3">
         <v>4600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1300</v>
       </c>
       <c r="R48" s="3">
         <v>1300</v>
       </c>
       <c r="S48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T48" s="3">
         <v>1600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>100</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>10</v>
+      <c r="E49" s="3">
+        <v>100</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -2788,8 +2899,8 @@
       <c r="J49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,13 +3047,16 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2972,22 +3092,25 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>400</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
-      <c r="T52" s="3" t="s">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>6800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3272,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3207,16 +3341,16 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -3228,34 +3362,37 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>4200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3281,10 +3418,10 @@
         <v>100</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>10</v>
@@ -3292,8 +3429,8 @@
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3310,125 +3447,134 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>4200</v>
       </c>
       <c r="H60" s="3">
         <v>4200</v>
       </c>
       <c r="I60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="J60" s="3">
         <v>3800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3600</v>
       </c>
       <c r="K60" s="3">
         <v>3600</v>
       </c>
       <c r="L60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M60" s="3">
         <v>8000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
         <v>1200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4000</v>
-      </c>
-      <c r="H61" s="3">
-        <v>4800</v>
       </c>
       <c r="I61" s="3">
         <v>4800</v>
       </c>
       <c r="J61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K61" s="3">
         <v>5000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>2700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1300</v>
@@ -3437,7 +3583,7 @@
         <v>1300</v>
       </c>
       <c r="G62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H62" s="3">
         <v>1400</v>
@@ -3446,13 +3592,13 @@
         <v>1400</v>
       </c>
       <c r="J62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>10</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>10</v>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>7400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>9500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>9300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>7700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-17700</v>
       </c>
       <c r="L72" s="3">
         <v>-17700</v>
       </c>
       <c r="M72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="N72" s="3">
         <v>-18000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-14600</v>
       </c>
       <c r="R72" s="3">
         <v>-14600</v>
       </c>
       <c r="S72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="T72" s="3">
         <v>-18400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E76" s="3">
         <v>5600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-800</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-1300</v>
       </c>
       <c r="L76" s="3">
         <v>-1300</v>
       </c>
       <c r="M76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-1500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-2700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,83 +4473,89 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44135</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>700</v>
+        <v>1700</v>
       </c>
       <c r="E81" s="3">
         <v>700</v>
       </c>
       <c r="F81" s="3">
+        <v>700</v>
+      </c>
+      <c r="G81" s="3">
         <v>900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>400</v>
       </c>
       <c r="H81" s="3">
         <v>400</v>
@@ -4372,37 +4567,40 @@
         <v>400</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,13 +4637,13 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -4465,22 +4664,25 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1300</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
       </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4858,43 +5079,46 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J91" s="3">
         <v>200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5232,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5026,43 +5256,46 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-400</v>
       </c>
       <c r="K100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,31 +5668,34 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
-      </c>
-      <c r="J102" s="3">
-        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
@@ -5452,27 +5704,30 @@
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,270 +665,282 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E8" s="3">
         <v>9400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10400</v>
       </c>
-      <c r="G8" s="3">
-        <v>11100</v>
-      </c>
       <c r="H8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I8" s="3">
         <v>9000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>8100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>5400</v>
       </c>
       <c r="T8" s="3">
         <v>5400</v>
       </c>
       <c r="U8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E9" s="3">
         <v>6800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>7300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>8100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
-        <v>3600</v>
-      </c>
       <c r="H10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I10" s="3">
         <v>2000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>3000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>4300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,25 +1005,28 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
         <v>0</v>
       </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1128,8 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>10</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1121,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1186,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,87 +1231,91 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E17" s="3">
         <v>8500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="G17" s="3">
-        <v>10100</v>
-      </c>
       <c r="H17" s="3">
+        <v>9900</v>
+      </c>
+      <c r="I17" s="3">
         <v>8400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>11800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
-      </c>
-      <c r="E18" s="3">
-        <v>800</v>
       </c>
       <c r="F18" s="3">
         <v>800</v>
       </c>
       <c r="G18" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="H18" s="3">
+        <v>900</v>
+      </c>
+      <c r="I18" s="3">
         <v>600</v>
-      </c>
-      <c r="I18" s="3">
-        <v>500</v>
       </c>
       <c r="J18" s="3">
         <v>500</v>
@@ -1295,37 +1324,40 @@
         <v>500</v>
       </c>
       <c r="L18" s="3">
+        <v>500</v>
+      </c>
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,13 +1379,14 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1392,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
@@ -1401,13 +1434,16 @@
         <v>-100</v>
       </c>
       <c r="T20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1415,78 +1451,81 @@
         <v>1100</v>
       </c>
       <c r="E21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
-      </c>
-      <c r="I21" s="3">
-        <v>600</v>
       </c>
       <c r="J21" s="3">
         <v>600</v>
       </c>
       <c r="K21" s="3">
+        <v>600</v>
+      </c>
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3">
         <v>200</v>
-      </c>
-      <c r="I22" s="3">
-        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>100</v>
@@ -1495,16 +1534,16 @@
         <v>100</v>
       </c>
       <c r="L22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>200</v>
       </c>
       <c r="N22" s="3">
+        <v>200</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
-      </c>
-      <c r="O22" s="3">
-        <v>200</v>
       </c>
       <c r="P22" s="3">
         <v>200</v>
@@ -1513,19 +1552,22 @@
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1533,16 +1575,16 @@
         <v>900</v>
       </c>
       <c r="E23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="F23" s="3">
         <v>700</v>
       </c>
       <c r="G23" s="3">
+        <v>700</v>
+      </c>
+      <c r="H23" s="3">
         <v>900</v>
-      </c>
-      <c r="H23" s="3">
-        <v>400</v>
       </c>
       <c r="I23" s="3">
         <v>400</v>
@@ -1554,63 +1596,66 @@
         <v>400</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>10</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,25 +1749,28 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>1700</v>
-      </c>
-      <c r="E26" s="3">
-        <v>700</v>
       </c>
       <c r="F26" s="3">
         <v>700</v>
       </c>
       <c r="G26" s="3">
+        <v>700</v>
+      </c>
+      <c r="H26" s="3">
         <v>900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>400</v>
       </c>
       <c r="I26" s="3">
         <v>400</v>
@@ -1731,54 +1782,57 @@
         <v>400</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>300</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>1700</v>
-      </c>
-      <c r="E27" s="3">
-        <v>700</v>
       </c>
       <c r="F27" s="3">
         <v>700</v>
       </c>
       <c r="G27" s="3">
+        <v>700</v>
+      </c>
+      <c r="H27" s="3">
         <v>900</v>
-      </c>
-      <c r="H27" s="3">
-        <v>400</v>
       </c>
       <c r="I27" s="3">
         <v>400</v>
@@ -1790,37 +1844,40 @@
         <v>400</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>300</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,13 +2121,16 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2100,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
@@ -2109,30 +2178,33 @@
         <v>100</v>
       </c>
       <c r="T32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>1700</v>
-      </c>
-      <c r="E33" s="3">
-        <v>700</v>
       </c>
       <c r="F33" s="3">
         <v>700</v>
       </c>
       <c r="G33" s="3">
+        <v>700</v>
+      </c>
+      <c r="H33" s="3">
         <v>900</v>
-      </c>
-      <c r="H33" s="3">
-        <v>400</v>
       </c>
       <c r="I33" s="3">
         <v>400</v>
@@ -2144,37 +2216,40 @@
         <v>400</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>300</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,25 +2307,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>1700</v>
-      </c>
-      <c r="E35" s="3">
-        <v>700</v>
       </c>
       <c r="F35" s="3">
         <v>700</v>
       </c>
       <c r="G35" s="3">
+        <v>700</v>
+      </c>
+      <c r="H35" s="3">
         <v>900</v>
-      </c>
-      <c r="H35" s="3">
-        <v>400</v>
       </c>
       <c r="I35" s="3">
         <v>400</v>
@@ -2262,101 +2340,107 @@
         <v>400</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>300</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,49 +2486,50 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>3200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
-      </c>
-      <c r="I41" s="3">
-        <v>600</v>
       </c>
       <c r="J41" s="3">
         <v>600</v>
       </c>
       <c r="K41" s="3">
+        <v>600</v>
+      </c>
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
-      </c>
-      <c r="P41" s="3">
-        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>600</v>
@@ -2452,16 +2538,19 @@
         <v>600</v>
       </c>
       <c r="S41" s="3">
+        <v>600</v>
+      </c>
+      <c r="T41" s="3">
         <v>400</v>
-      </c>
-      <c r="T41" s="3">
-        <v>700</v>
       </c>
       <c r="U41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,126 +2608,135 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E44" s="3">
         <v>1200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1800</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1200</v>
       </c>
       <c r="H44" s="3">
         <v>1200</v>
       </c>
       <c r="I44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J44" s="3">
         <v>1700</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1500</v>
       </c>
       <c r="K44" s="3">
         <v>1500</v>
       </c>
       <c r="L44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>200</v>
       </c>
       <c r="T44" s="3">
+        <v>200</v>
+      </c>
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,7 +2744,7 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
@@ -2661,28 +2759,28 @@
         <v>300</v>
       </c>
       <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
@@ -2691,72 +2789,78 @@
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,67 +2918,73 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E48" s="3">
         <v>4300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4400</v>
       </c>
       <c r="J48" s="3">
         <v>4400</v>
       </c>
       <c r="K48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L48" s="3">
         <v>4600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
-      </c>
-      <c r="R48" s="3">
-        <v>1300</v>
       </c>
       <c r="S48" s="3">
         <v>1300</v>
       </c>
       <c r="T48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U48" s="3">
         <v>1600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2884,8 +2994,8 @@
       <c r="E49" s="3">
         <v>100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>10</v>
+      <c r="F49" s="3">
+        <v>100</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>10</v>
@@ -2902,8 +3012,8 @@
       <c r="K49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,17 +3166,20 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
       <c r="F52" s="3">
         <v>0</v>
       </c>
@@ -3095,22 +3214,25 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>400</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3" t="s">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E54" s="3">
         <v>14000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>11800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,67 +3402,71 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3344,16 +3477,16 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
       </c>
       <c r="J58" s="3">
         <v>600</v>
@@ -3365,39 +3498,42 @@
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>4200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
@@ -3421,10 +3557,10 @@
         <v>100</v>
       </c>
       <c r="L59" s="3">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
@@ -3432,8 +3568,8 @@
       <c r="O59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -3450,134 +3586,143 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>4200</v>
       </c>
       <c r="I60" s="3">
         <v>4200</v>
       </c>
       <c r="J60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K60" s="3">
         <v>3800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3600</v>
       </c>
       <c r="L60" s="3">
         <v>3600</v>
       </c>
       <c r="M60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N60" s="3">
         <v>8000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4000</v>
-      </c>
-      <c r="I61" s="3">
-        <v>4800</v>
       </c>
       <c r="J61" s="3">
         <v>4800</v>
       </c>
       <c r="K61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L61" s="3">
         <v>5000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>2700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1200</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1300</v>
       </c>
       <c r="F62" s="3">
         <v>1300</v>
@@ -3586,7 +3731,7 @@
         <v>1300</v>
       </c>
       <c r="H62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I62" s="3">
         <v>1400</v>
@@ -3595,13 +3740,13 @@
         <v>1400</v>
       </c>
       <c r="K62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L62" s="3">
         <v>1500</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>10</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
@@ -3627,8 +3772,11 @@
       <c r="U62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>7400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>7700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-17700</v>
       </c>
       <c r="M72" s="3">
         <v>-17700</v>
       </c>
       <c r="N72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-18000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-18100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-14600</v>
       </c>
       <c r="S72" s="3">
         <v>-14600</v>
       </c>
       <c r="T72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="U72" s="3">
         <v>-18400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E76" s="3">
         <v>8300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-1300</v>
       </c>
       <c r="M76" s="3">
         <v>-1300</v>
       </c>
       <c r="N76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,89 +4664,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>1700</v>
-      </c>
-      <c r="E81" s="3">
-        <v>700</v>
       </c>
       <c r="F81" s="3">
         <v>700</v>
       </c>
       <c r="G81" s="3">
+        <v>700</v>
+      </c>
+      <c r="H81" s="3">
         <v>900</v>
-      </c>
-      <c r="H81" s="3">
-        <v>400</v>
       </c>
       <c r="I81" s="3">
         <v>400</v>
@@ -4570,37 +4764,40 @@
         <v>400</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>300</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4640,13 +4838,13 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -4667,22 +4865,25 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1300</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,13 +5277,14 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5082,43 +5302,46 @@
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,13 +5461,16 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -5259,43 +5488,46 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5795,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-400</v>
       </c>
       <c r="L100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,34 +5919,37 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
@@ -5707,27 +5958,30 @@
         <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>MMMB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3">
         <v>10300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9900</v>
       </c>
-      <c r="G8" s="3">
-        <v>10400</v>
-      </c>
       <c r="H8" s="3">
+        <v>10200</v>
+      </c>
+      <c r="I8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>8200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>5400</v>
       </c>
       <c r="U8" s="3">
         <v>5400</v>
       </c>
       <c r="V8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="W8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E9" s="3">
         <v>7100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>7300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>8100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
-        <v>3100</v>
-      </c>
       <c r="H10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I10" s="3">
         <v>3300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>3000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>4300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,25 +1022,28 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
-      </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
       <c r="U12" s="3">
         <v>0</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1131,8 +1151,8 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
@@ -1143,14 +1163,17 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,93 +1258,97 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E17" s="3">
         <v>9500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
-        <v>9600</v>
-      </c>
       <c r="H17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I17" s="3">
         <v>9900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>11800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>900</v>
-      </c>
-      <c r="F18" s="3">
-        <v>800</v>
       </c>
       <c r="G18" s="3">
         <v>800</v>
       </c>
       <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>600</v>
-      </c>
-      <c r="J18" s="3">
-        <v>500</v>
       </c>
       <c r="K18" s="3">
         <v>500</v>
@@ -1327,37 +1357,40 @@
         <v>500</v>
       </c>
       <c r="M18" s="3">
+        <v>500</v>
+      </c>
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,17 +1413,18 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1398,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -1428,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>-100</v>
@@ -1437,98 +1471,104 @@
         <v>-100</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E21" s="3">
         <v>1100</v>
       </c>
       <c r="F21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
-      </c>
-      <c r="J21" s="3">
-        <v>600</v>
       </c>
       <c r="K21" s="3">
         <v>600</v>
       </c>
       <c r="L21" s="3">
+        <v>600</v>
+      </c>
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
+        <v>100</v>
+      </c>
+      <c r="J22" s="3">
         <v>200</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>100</v>
@@ -1537,16 +1577,16 @@
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>300</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
@@ -1555,39 +1595,42 @@
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="E23" s="3">
         <v>900</v>
       </c>
       <c r="F23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="G23" s="3">
         <v>700</v>
       </c>
       <c r="H23" s="3">
+        <v>700</v>
+      </c>
+      <c r="I23" s="3">
         <v>900</v>
-      </c>
-      <c r="I23" s="3">
-        <v>400</v>
       </c>
       <c r="J23" s="3">
         <v>400</v>
@@ -1599,51 +1642,54 @@
         <v>400</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>10</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1651,14 +1697,14 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>10</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,28 +1801,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>400</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1700</v>
-      </c>
-      <c r="F26" s="3">
-        <v>700</v>
       </c>
       <c r="G26" s="3">
         <v>700</v>
       </c>
       <c r="H26" s="3">
+        <v>700</v>
+      </c>
+      <c r="I26" s="3">
         <v>900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>400</v>
       </c>
       <c r="J26" s="3">
         <v>400</v>
@@ -1785,57 +1837,60 @@
         <v>400</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>400</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1700</v>
-      </c>
-      <c r="F27" s="3">
-        <v>700</v>
       </c>
       <c r="G27" s="3">
         <v>700</v>
       </c>
       <c r="H27" s="3">
+        <v>700</v>
+      </c>
+      <c r="I27" s="3">
         <v>900</v>
-      </c>
-      <c r="I27" s="3">
-        <v>400</v>
       </c>
       <c r="J27" s="3">
         <v>400</v>
@@ -1847,37 +1902,40 @@
         <v>400</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,17 +2191,20 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2142,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2172,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>100</v>
@@ -2181,33 +2251,36 @@
         <v>100</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>400</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1700</v>
-      </c>
-      <c r="F33" s="3">
-        <v>700</v>
       </c>
       <c r="G33" s="3">
         <v>700</v>
       </c>
       <c r="H33" s="3">
+        <v>700</v>
+      </c>
+      <c r="I33" s="3">
         <v>900</v>
-      </c>
-      <c r="I33" s="3">
-        <v>400</v>
       </c>
       <c r="J33" s="3">
         <v>400</v>
@@ -2219,37 +2292,40 @@
         <v>400</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>100</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,28 +2386,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>400</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1700</v>
-      </c>
-      <c r="F35" s="3">
-        <v>700</v>
       </c>
       <c r="G35" s="3">
         <v>700</v>
       </c>
       <c r="H35" s="3">
+        <v>700</v>
+      </c>
+      <c r="I35" s="3">
         <v>900</v>
-      </c>
-      <c r="I35" s="3">
-        <v>400</v>
       </c>
       <c r="J35" s="3">
         <v>400</v>
@@ -2343,104 +2422,110 @@
         <v>400</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>100</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,52 +2573,53 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
-      </c>
-      <c r="J41" s="3">
-        <v>600</v>
       </c>
       <c r="K41" s="3">
         <v>600</v>
       </c>
       <c r="L41" s="3">
+        <v>600</v>
+      </c>
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>500</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>600</v>
@@ -2541,16 +2628,19 @@
         <v>600</v>
       </c>
       <c r="T41" s="3">
+        <v>600</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
-      </c>
-      <c r="U41" s="3">
-        <v>700</v>
       </c>
       <c r="V41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,72 +2778,75 @@
         <v>1400</v>
       </c>
       <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
         <v>1200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1200</v>
       </c>
       <c r="I44" s="3">
         <v>1200</v>
       </c>
       <c r="J44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>1500</v>
       </c>
       <c r="L44" s="3">
         <v>1500</v>
       </c>
       <c r="M44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>200</v>
       </c>
       <c r="T44" s="3">
         <v>200</v>
       </c>
       <c r="U44" s="3">
+        <v>200</v>
+      </c>
+      <c r="V44" s="3">
         <v>1300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
@@ -2762,28 +2861,28 @@
         <v>300</v>
       </c>
       <c r="K45" s="3">
+        <v>300</v>
+      </c>
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -2792,75 +2891,81 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
         <v>9900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,70 +3026,76 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
         <v>4800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
-      </c>
-      <c r="J48" s="3">
-        <v>4400</v>
       </c>
       <c r="K48" s="3">
         <v>4400</v>
       </c>
       <c r="L48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="M48" s="3">
         <v>4600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
-      </c>
-      <c r="S48" s="3">
-        <v>1300</v>
       </c>
       <c r="T48" s="3">
         <v>1300</v>
       </c>
       <c r="U48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V48" s="3">
         <v>1600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2997,8 +3108,8 @@
       <c r="F49" s="3">
         <v>100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>10</v>
+      <c r="G49" s="3">
+        <v>100</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>10</v>
@@ -3015,8 +3126,8 @@
       <c r="L49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,20 +3286,23 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>400</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
@@ -3217,22 +3337,25 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>400</v>
       </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
-      <c r="V52" s="3" t="s">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E54" s="3">
         <v>15300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>14000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>11800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3480,16 +3614,16 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
@@ -3501,34 +3635,37 @@
         <v>600</v>
       </c>
       <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3">
         <v>4200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,7 +3673,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
         <v>100</v>
@@ -3560,10 +3697,10 @@
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>10</v>
@@ -3571,8 +3708,8 @@
       <c r="P59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -3589,70 +3726,76 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E60" s="3">
         <v>4400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>4200</v>
       </c>
       <c r="J60" s="3">
         <v>4200</v>
       </c>
       <c r="K60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L60" s="3">
         <v>3800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3600</v>
       </c>
       <c r="M60" s="3">
         <v>3600</v>
       </c>
       <c r="N60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O60" s="3">
         <v>8000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3660,72 +3803,75 @@
         <v>400</v>
       </c>
       <c r="E61" s="3">
+        <v>400</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>4800</v>
       </c>
       <c r="K61" s="3">
         <v>4800</v>
       </c>
       <c r="L61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M61" s="3">
         <v>5000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>2700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1300</v>
       </c>
       <c r="G62" s="3">
         <v>1300</v>
@@ -3734,7 +3880,7 @@
         <v>1300</v>
       </c>
       <c r="I62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J62" s="3">
         <v>1400</v>
@@ -3743,13 +3889,13 @@
         <v>1400</v>
       </c>
       <c r="L62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M62" s="3">
         <v>1500</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>10</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>10</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>10300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>10400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>8900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>8500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>9900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>7700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-17700</v>
       </c>
       <c r="N72" s="3">
         <v>-17700</v>
       </c>
       <c r="O72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="P72" s="3">
         <v>-18000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-18100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-14600</v>
       </c>
       <c r="T72" s="3">
         <v>-14600</v>
       </c>
       <c r="U72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="V72" s="3">
         <v>-18400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E76" s="3">
         <v>9000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>5600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-800</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-1300</v>
       </c>
       <c r="N76" s="3">
         <v>-1300</v>
       </c>
       <c r="O76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,95 +4856,101 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>400</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1700</v>
-      </c>
-      <c r="F81" s="3">
-        <v>700</v>
       </c>
       <c r="G81" s="3">
         <v>700</v>
       </c>
       <c r="H81" s="3">
+        <v>700</v>
+      </c>
+      <c r="I81" s="3">
         <v>900</v>
-      </c>
-      <c r="I81" s="3">
-        <v>400</v>
       </c>
       <c r="J81" s="3">
         <v>400</v>
@@ -4767,37 +4962,40 @@
         <v>400</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>100</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,13 +5040,13 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -4868,22 +5067,25 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>1400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1300</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,16 +5498,17 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
@@ -5305,43 +5526,46 @@
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,16 +5691,19 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -5491,43 +5721,46 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5807,61 +6053,64 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>-400</v>
       </c>
       <c r="M100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,37 +6171,40 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
@@ -5961,27 +6213,30 @@
         <v>100</v>
       </c>
       <c r="O102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>9400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>9900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>12400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>5400</v>
       </c>
       <c r="V8" s="3">
         <v>5400</v>
       </c>
       <c r="W8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="X8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E9" s="3">
         <v>8800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>7100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>7500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>8100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
         <v>3300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>4300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,25 +1039,28 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
       <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
       <c r="V12" s="3">
         <v>0</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1154,8 +1174,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
@@ -1166,14 +1186,17 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,99 +1285,103 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>11800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>800</v>
       </c>
       <c r="H18" s="3">
         <v>800</v>
       </c>
       <c r="I18" s="3">
+        <v>800</v>
+      </c>
+      <c r="J18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>600</v>
-      </c>
-      <c r="K18" s="3">
-        <v>500</v>
       </c>
       <c r="L18" s="3">
         <v>500</v>
@@ -1360,37 +1390,40 @@
         <v>500</v>
       </c>
       <c r="N18" s="3">
+        <v>500</v>
+      </c>
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1447,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,20 +1457,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1465,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T20" s="3">
         <v>-100</v>
@@ -1474,78 +1508,84 @@
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>200</v>
+      </c>
+      <c r="E21" s="3">
         <v>800</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1100</v>
       </c>
       <c r="F21" s="3">
         <v>1100</v>
       </c>
       <c r="G21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>600</v>
       </c>
       <c r="L21" s="3">
         <v>600</v>
       </c>
       <c r="M21" s="3">
+        <v>600</v>
+      </c>
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1555,23 +1595,23 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>100</v>
       </c>
       <c r="J22" s="3">
+        <v>100</v>
+      </c>
+      <c r="K22" s="3">
         <v>200</v>
-      </c>
-      <c r="K22" s="3">
-        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
@@ -1580,16 +1620,16 @@
         <v>100</v>
       </c>
       <c r="N22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>300</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>200</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
@@ -1598,42 +1638,45 @@
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
-      </c>
-      <c r="E23" s="3">
-        <v>900</v>
       </c>
       <c r="F23" s="3">
         <v>900</v>
       </c>
       <c r="G23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H23" s="3">
         <v>700</v>
       </c>
       <c r="I23" s="3">
+        <v>700</v>
+      </c>
+      <c r="J23" s="3">
         <v>900</v>
-      </c>
-      <c r="J23" s="3">
-        <v>400</v>
       </c>
       <c r="K23" s="3">
         <v>400</v>
@@ -1645,52 +1688,55 @@
         <v>400</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-700</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1700,14 +1746,14 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>10</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,31 +1853,34 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1700</v>
-      </c>
-      <c r="G26" s="3">
-        <v>700</v>
       </c>
       <c r="H26" s="3">
         <v>700</v>
       </c>
       <c r="I26" s="3">
+        <v>700</v>
+      </c>
+      <c r="J26" s="3">
         <v>900</v>
-      </c>
-      <c r="J26" s="3">
-        <v>400</v>
       </c>
       <c r="K26" s="3">
         <v>400</v>
@@ -1840,60 +1892,63 @@
         <v>400</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1700</v>
-      </c>
-      <c r="G27" s="3">
-        <v>700</v>
       </c>
       <c r="H27" s="3">
         <v>700</v>
       </c>
       <c r="I27" s="3">
+        <v>700</v>
+      </c>
+      <c r="J27" s="3">
         <v>900</v>
-      </c>
-      <c r="J27" s="3">
-        <v>400</v>
       </c>
       <c r="K27" s="3">
         <v>400</v>
@@ -1905,37 +1960,40 @@
         <v>400</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2261,11 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,20 +2273,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2245,7 +2315,7 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
         <v>100</v>
@@ -2254,36 +2324,39 @@
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1700</v>
-      </c>
-      <c r="G33" s="3">
-        <v>700</v>
       </c>
       <c r="H33" s="3">
         <v>700</v>
       </c>
       <c r="I33" s="3">
+        <v>700</v>
+      </c>
+      <c r="J33" s="3">
         <v>900</v>
-      </c>
-      <c r="J33" s="3">
-        <v>400</v>
       </c>
       <c r="K33" s="3">
         <v>400</v>
@@ -2295,37 +2368,40 @@
         <v>400</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,31 +2465,34 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1700</v>
-      </c>
-      <c r="G35" s="3">
-        <v>700</v>
       </c>
       <c r="H35" s="3">
         <v>700</v>
       </c>
       <c r="I35" s="3">
+        <v>700</v>
+      </c>
+      <c r="J35" s="3">
         <v>900</v>
-      </c>
-      <c r="J35" s="3">
-        <v>400</v>
       </c>
       <c r="K35" s="3">
         <v>400</v>
@@ -2425,107 +2504,113 @@
         <v>400</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,55 +2660,56 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E41" s="3">
         <v>4300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>600</v>
       </c>
       <c r="L41" s="3">
         <v>600</v>
       </c>
       <c r="M41" s="3">
+        <v>600</v>
+      </c>
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>500</v>
-      </c>
-      <c r="R41" s="3">
-        <v>600</v>
       </c>
       <c r="S41" s="3">
         <v>600</v>
@@ -2631,16 +2718,19 @@
         <v>600</v>
       </c>
       <c r="U41" s="3">
+        <v>600</v>
+      </c>
+      <c r="V41" s="3">
         <v>400</v>
-      </c>
-      <c r="V41" s="3">
-        <v>700</v>
       </c>
       <c r="W41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,152 +2794,161 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E43" s="3">
         <v>4800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>4400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1400</v>
+        <v>1600</v>
       </c>
       <c r="E44" s="3">
         <v>1400</v>
       </c>
       <c r="F44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G44" s="3">
         <v>1200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>1200</v>
       </c>
       <c r="K44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L44" s="3">
         <v>1700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1500</v>
       </c>
       <c r="M44" s="3">
         <v>1500</v>
       </c>
       <c r="N44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
-      </c>
-      <c r="T44" s="3">
-        <v>200</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
       </c>
       <c r="V44" s="3">
+        <v>200</v>
+      </c>
+      <c r="W44" s="3">
         <v>1300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -2864,28 +2963,28 @@
         <v>300</v>
       </c>
       <c r="L45" s="3">
+        <v>300</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
-      </c>
-      <c r="N45" s="3">
-        <v>200</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -2894,78 +2993,84 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>3500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,73 +3134,79 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
-      </c>
-      <c r="K48" s="3">
-        <v>4400</v>
       </c>
       <c r="L48" s="3">
         <v>4400</v>
       </c>
       <c r="M48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N48" s="3">
         <v>4600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2100</v>
-      </c>
-      <c r="T48" s="3">
-        <v>1300</v>
       </c>
       <c r="U48" s="3">
         <v>1300</v>
       </c>
       <c r="V48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W48" s="3">
         <v>1600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3111,8 +3222,8 @@
       <c r="G49" s="3">
         <v>100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>10</v>
+      <c r="H49" s="3">
+        <v>100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>10</v>
@@ -3129,8 +3240,8 @@
       <c r="M49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3298,14 +3418,14 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
+        <v>400</v>
+      </c>
+      <c r="F52" s="3">
         <v>500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
         <v>0</v>
       </c>
@@ -3340,22 +3460,25 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>400</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
-      <c r="W52" s="3" t="s">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E54" s="3">
         <v>16000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>14000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>7700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>7500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,73 +3664,77 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E57" s="3">
         <v>4500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3617,16 +3751,16 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
@@ -3638,34 +3772,37 @@
         <v>600</v>
       </c>
       <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
         <v>4200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3676,7 +3813,7 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>100</v>
@@ -3700,10 +3837,10 @@
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>10</v>
@@ -3711,8 +3848,8 @@
       <c r="Q59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
@@ -3729,73 +3866,79 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E60" s="3">
         <v>4900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4700</v>
-      </c>
-      <c r="J60" s="3">
-        <v>4200</v>
       </c>
       <c r="K60" s="3">
         <v>4200</v>
       </c>
       <c r="L60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M60" s="3">
         <v>3800</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3600</v>
       </c>
       <c r="N60" s="3">
         <v>3600</v>
       </c>
       <c r="O60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P60" s="3">
         <v>8000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3806,61 +3949,64 @@
         <v>400</v>
       </c>
       <c r="F61" s="3">
+        <v>400</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>4800</v>
       </c>
       <c r="L61" s="3">
         <v>4800</v>
       </c>
       <c r="M61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N61" s="3">
         <v>5000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>2700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,13 +4014,13 @@
         <v>1400</v>
       </c>
       <c r="E62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1200</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1300</v>
       </c>
       <c r="H62" s="3">
         <v>1300</v>
@@ -3883,7 +4029,7 @@
         <v>1300</v>
       </c>
       <c r="J62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K62" s="3">
         <v>1400</v>
@@ -3892,13 +4038,13 @@
         <v>1400</v>
       </c>
       <c r="M62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N62" s="3">
         <v>1500</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>10</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>10300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>10400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>8900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>8500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>7700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,8 +4640,11 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4478,64 +4652,67 @@
         <v>-11000</v>
       </c>
       <c r="E72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-17700</v>
       </c>
       <c r="O72" s="3">
         <v>-17700</v>
       </c>
       <c r="P72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-18100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-14600</v>
       </c>
       <c r="U72" s="3">
         <v>-14600</v>
       </c>
       <c r="V72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="W72" s="3">
         <v>-18400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,8 +4912,11 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4738,64 +4924,67 @@
         <v>9400</v>
       </c>
       <c r="E76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F76" s="3">
         <v>9000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>5600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-800</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-1300</v>
       </c>
       <c r="O76" s="3">
         <v>-1300</v>
       </c>
       <c r="P76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-1500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-2700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,101 +5048,107 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1700</v>
-      </c>
-      <c r="G81" s="3">
-        <v>700</v>
       </c>
       <c r="H81" s="3">
         <v>700</v>
       </c>
       <c r="I81" s="3">
+        <v>700</v>
+      </c>
+      <c r="J81" s="3">
         <v>900</v>
-      </c>
-      <c r="J81" s="3">
-        <v>400</v>
       </c>
       <c r="K81" s="3">
         <v>400</v>
@@ -4965,37 +5160,40 @@
         <v>400</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5043,13 +5242,13 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -5070,22 +5269,25 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,19 +5719,20 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -5529,43 +5750,46 @@
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,19 +5921,22 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-400</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -5724,43 +5954,46 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,73 +6287,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>-400</v>
       </c>
       <c r="N100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,40 +6423,43 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>100</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
@@ -6216,27 +6468,30 @@
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F8" s="3">
         <v>10900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>12100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>10300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>9400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>9900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>10200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>9000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>9300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>8100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>7400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>8200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>7700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>7400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>12400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F9" s="3">
         <v>8200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>8800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>7100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>6900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>7300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>7500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>7000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>6400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>5400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>3600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>4800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>5000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>8100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3400</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>2700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>3000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>4300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1016,10 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1054,13 +1081,19 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,8 +1160,14 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1177,11 +1216,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
@@ -1189,14 +1228,20 @@
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1308,14 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,120 +1337,128 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>11500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>9400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>8400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>6900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>7700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>7200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>7100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>11800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>600</v>
-      </c>
-      <c r="F18" s="3">
-        <v>800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>900</v>
       </c>
       <c r="H18" s="3">
         <v>800</v>
       </c>
       <c r="I18" s="3">
+        <v>900</v>
+      </c>
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>800</v>
+      </c>
+      <c r="L18" s="3">
         <v>900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>500</v>
       </c>
       <c r="N18" s="3">
         <v>500</v>
       </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="P18" s="3">
         <v>500</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R18" s="3">
         <v>500</v>
@@ -1408,22 +1467,28 @@
         <v>100</v>
       </c>
       <c r="T18" s="3">
+        <v>500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1513,10 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1460,23 +1527,23 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1502,66 +1569,72 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>600</v>
-      </c>
-      <c r="N21" s="3">
-        <v>700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>400</v>
       </c>
       <c r="P21" s="3">
         <v>700</v>
       </c>
       <c r="Q21" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R21" s="3">
         <v>700</v>
@@ -1570,27 +1643,33 @@
         <v>300</v>
       </c>
       <c r="T21" s="3">
+        <v>700</v>
+      </c>
+      <c r="U21" s="3">
+        <v>300</v>
+      </c>
+      <c r="V21" s="3">
         <v>400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>800</v>
-      </c>
-      <c r="V21" s="3">
-        <v>300</v>
-      </c>
-      <c r="W21" s="3">
-        <v>600</v>
       </c>
       <c r="X21" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1598,91 +1677,97 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
         <v>100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>100</v>
-      </c>
-      <c r="K22" s="3">
-        <v>200</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>300</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
       </c>
       <c r="W22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X22" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>400</v>
       </c>
       <c r="M23" s="3">
         <v>400</v>
@@ -1691,37 +1776,43 @@
         <v>400</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>300</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1729,38 +1820,38 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1879,14 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,37 +1953,43 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>400</v>
       </c>
       <c r="M26" s="3">
         <v>400</v>
@@ -1895,66 +1998,72 @@
         <v>400</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P26" s="3">
         <v>400</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>300</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>400</v>
       </c>
       <c r="M27" s="3">
         <v>400</v>
@@ -1963,37 +2072,43 @@
         <v>400</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P27" s="3">
         <v>400</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>300</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>100</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2397,14 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2276,23 +2415,23 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2318,51 +2457,57 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>400</v>
       </c>
       <c r="M33" s="3">
         <v>400</v>
@@ -2371,37 +2516,43 @@
         <v>400</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P33" s="3">
         <v>400</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>300</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>100</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,37 +2619,43 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>400</v>
       </c>
       <c r="M35" s="3">
         <v>400</v>
@@ -2507,110 +2664,122 @@
         <v>400</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P35" s="3">
         <v>400</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>300</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>100</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2832,84 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I41" s="3">
-        <v>1700</v>
       </c>
       <c r="J41" s="3">
         <v>1800</v>
       </c>
       <c r="K41" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
-      </c>
-      <c r="M41" s="3">
-        <v>600</v>
-      </c>
-      <c r="N41" s="3">
-        <v>700</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="R41" s="3">
         <v>500</v>
       </c>
       <c r="S41" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U41" s="3">
         <v>600</v>
       </c>
       <c r="V41" s="3">
+        <v>600</v>
+      </c>
+      <c r="W41" s="3">
+        <v>600</v>
+      </c>
+      <c r="X41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,164 +2976,182 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F43" s="3">
         <v>4000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>3700</v>
-      </c>
-      <c r="G43" s="3">
-        <v>4000</v>
       </c>
       <c r="H43" s="3">
         <v>3700</v>
       </c>
       <c r="I43" s="3">
+        <v>4000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3500</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2300</v>
       </c>
       <c r="O43" s="3">
         <v>2700</v>
       </c>
       <c r="P43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R43" s="3">
         <v>3200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>4400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>4700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>4300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>3900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1000</v>
       </c>
       <c r="Q44" s="3">
         <v>1300</v>
       </c>
       <c r="R44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T44" s="3">
         <v>1100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>200</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>300</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -2966,19 +3163,19 @@
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>400</v>
+      </c>
+      <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>300</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
@@ -2987,90 +3184,102 @@
         <v>300</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
+        <v>100</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F46" s="3">
         <v>10700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>10900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>8900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>6100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>4700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>4800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>4900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>3700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>5700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>3500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,84 +3346,96 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>4500</v>
       </c>
       <c r="J48" s="3">
         <v>4400</v>
       </c>
       <c r="K48" s="3">
-        <v>4300</v>
+        <v>4500</v>
       </c>
       <c r="L48" s="3">
         <v>4400</v>
       </c>
       <c r="M48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P48" s="3">
         <v>4600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>100</v>
+        <v>10500</v>
       </c>
       <c r="E49" s="3">
-        <v>100</v>
+        <v>10600</v>
       </c>
       <c r="F49" s="3">
         <v>100</v>
@@ -3225,11 +3446,11 @@
       <c r="H49" s="3">
         <v>100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>10</v>
+      <c r="I49" s="3">
+        <v>100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>100</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>10</v>
@@ -3243,11 +3464,11 @@
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3273,8 +3494,14 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,29 +3642,35 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
@@ -3463,22 +3702,28 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>400</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3" t="s">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>30000</v>
+      </c>
+      <c r="F54" s="3">
         <v>15900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>16000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>15300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>14000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>11800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>11000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>11700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>10500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>9300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>8000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>8400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>7300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>7600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>7500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>6800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,84 +3924,92 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>3500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N57" s="3">
-        <v>3000</v>
       </c>
       <c r="O57" s="3">
         <v>3100</v>
       </c>
       <c r="P57" s="3">
-        <v>3800</v>
+        <v>3000</v>
       </c>
       <c r="Q57" s="3">
         <v>3100</v>
       </c>
       <c r="R57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="S57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T57" s="3">
         <v>4000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>2500</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -3754,19 +4021,19 @@
         <v>200</v>
       </c>
       <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
       </c>
       <c r="N58" s="3">
         <v>600</v>
@@ -3775,51 +4042,57 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>4200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>4200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>4300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>3400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>2900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>100</v>
@@ -3840,22 +4113,22 @@
         <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="P59" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3">
-        <v>0</v>
+      <c r="S59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
@@ -3869,188 +4142,206 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F60" s="3">
         <v>4700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>4900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>4400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>8000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>7200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>400</v>
+        <v>10900</v>
       </c>
       <c r="E61" s="3">
-        <v>400</v>
+        <v>9600</v>
       </c>
       <c r="F61" s="3">
         <v>400</v>
       </c>
       <c r="G61" s="3">
+        <v>400</v>
+      </c>
+      <c r="H61" s="3">
+        <v>400</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>3100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1400</v>
       </c>
       <c r="R61" s="3">
         <v>1300</v>
       </c>
       <c r="S61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U61" s="3">
         <v>1600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>2700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I62" s="3">
-        <v>1300</v>
       </c>
       <c r="J62" s="3">
         <v>1300</v>
       </c>
       <c r="K62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="L62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="M62" s="3">
         <v>1400</v>
       </c>
       <c r="N62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P62" s="3">
         <v>1500</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>10</v>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>10</v>
@@ -4073,8 +4364,14 @@
       <c r="X62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6600</v>
-      </c>
-      <c r="F66" s="3">
-        <v>6300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>5700</v>
       </c>
       <c r="H66" s="3">
         <v>6300</v>
       </c>
       <c r="I66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6300</v>
+      </c>
+      <c r="K66" s="3">
         <v>7400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>10300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>9500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>10400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>10000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>10200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>8900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>9300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>8500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>9900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>7700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-11000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-11400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-12100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-13800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-16100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-16900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-17200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-17700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-17700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-18000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-17800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-18100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-14400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-14600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-18400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F76" s="3">
         <v>9400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>9000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>8300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>5600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-1300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-1500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-2700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,110 +5428,122 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>400</v>
       </c>
       <c r="M81" s="3">
         <v>400</v>
@@ -5163,37 +5552,43 @@
         <v>400</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P81" s="3">
         <v>400</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>300</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>100</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,16 +5613,18 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -5245,16 +5642,16 @@
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
@@ -5272,7 +5669,7 @@
         <v>200</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5286,8 +5683,14 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +6159,10 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5729,16 +6170,16 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
@@ -5753,43 +6194,49 @@
         <v>-100</v>
       </c>
       <c r="M91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-600</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-700</v>
       </c>
       <c r="W91" s="3">
         <v>-800</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+        <v>-700</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6377,14 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5933,16 +6392,16 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-10600</v>
       </c>
       <c r="F94" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
@@ -5957,43 +6416,49 @@
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6483,10 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6553,14 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6775,88 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,58 +6923,64 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>100</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
@@ -6486,12 +6989,18 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
         <v>21800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>13900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>10900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>9400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>10200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>9000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>8100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>8200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12400</v>
-      </c>
-      <c r="X8" s="3">
-        <v>5400</v>
       </c>
       <c r="Y8" s="3">
         <v>5400</v>
       </c>
       <c r="Z8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AA8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E9" s="3">
         <v>18100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>11600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>8200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>8800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>7300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>6400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>5400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>8100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>2700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>3000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>4300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,25 +1089,28 @@
         <v>0</v>
       </c>
       <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
-      </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
       <c r="Y12" s="3">
         <v>0</v>
       </c>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,8 +1242,8 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
@@ -1234,14 +1254,17 @@
       <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,117 +1365,121 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23700</v>
+      </c>
+      <c r="E17" s="3">
         <v>21600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>15200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>11500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>9500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>11800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>900</v>
-      </c>
-      <c r="J18" s="3">
-        <v>800</v>
       </c>
       <c r="K18" s="3">
         <v>800</v>
       </c>
       <c r="L18" s="3">
+        <v>800</v>
+      </c>
+      <c r="M18" s="3">
         <v>900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>500</v>
       </c>
       <c r="O18" s="3">
         <v>500</v>
@@ -1458,37 +1488,40 @@
         <v>500</v>
       </c>
       <c r="Q18" s="3">
+        <v>500</v>
+      </c>
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,13 +1548,14 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1533,20 +1567,20 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1575,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
@@ -1584,87 +1618,93 @@
         <v>-100</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>1100</v>
       </c>
       <c r="I21" s="3">
         <v>1100</v>
       </c>
       <c r="J21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
-      </c>
-      <c r="N21" s="3">
-        <v>600</v>
       </c>
       <c r="O21" s="3">
         <v>600</v>
       </c>
       <c r="P21" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1672,7 +1712,7 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1683,23 +1723,23 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
+        <v>100</v>
+      </c>
+      <c r="N22" s="3">
         <v>200</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
@@ -1708,16 +1748,16 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>200</v>
       </c>
       <c r="S22" s="3">
+        <v>200</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
-      </c>
-      <c r="T22" s="3">
-        <v>200</v>
       </c>
       <c r="U22" s="3">
         <v>200</v>
@@ -1726,51 +1766,54 @@
         <v>200</v>
       </c>
       <c r="W22" s="3">
+        <v>200</v>
+      </c>
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>200</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>900</v>
       </c>
       <c r="I23" s="3">
         <v>900</v>
       </c>
       <c r="J23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="K23" s="3">
         <v>700</v>
       </c>
       <c r="L23" s="3">
+        <v>700</v>
+      </c>
+      <c r="M23" s="3">
         <v>900</v>
-      </c>
-      <c r="M23" s="3">
-        <v>400</v>
       </c>
       <c r="N23" s="3">
         <v>400</v>
@@ -1782,61 +1825,64 @@
         <v>400</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
       <c r="Y23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1846,14 +1892,14 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>10</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,40 +2008,43 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1700</v>
-      </c>
-      <c r="J26" s="3">
-        <v>700</v>
       </c>
       <c r="K26" s="3">
         <v>700</v>
       </c>
       <c r="L26" s="3">
+        <v>700</v>
+      </c>
+      <c r="M26" s="3">
         <v>900</v>
-      </c>
-      <c r="M26" s="3">
-        <v>400</v>
       </c>
       <c r="N26" s="3">
         <v>400</v>
@@ -2004,69 +2056,72 @@
         <v>400</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>300</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
       <c r="Y26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1700</v>
-      </c>
-      <c r="J27" s="3">
-        <v>700</v>
       </c>
       <c r="K27" s="3">
         <v>700</v>
       </c>
       <c r="L27" s="3">
+        <v>700</v>
+      </c>
+      <c r="M27" s="3">
         <v>900</v>
-      </c>
-      <c r="M27" s="3">
-        <v>400</v>
       </c>
       <c r="N27" s="3">
         <v>400</v>
@@ -2078,37 +2133,40 @@
         <v>400</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>300</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,13 +2470,16 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2421,20 +2491,20 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2463,7 +2533,7 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
@@ -2472,45 +2542,48 @@
         <v>100</v>
       </c>
       <c r="Y32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>700</v>
       </c>
       <c r="K33" s="3">
         <v>700</v>
       </c>
       <c r="L33" s="3">
+        <v>700</v>
+      </c>
+      <c r="M33" s="3">
         <v>900</v>
-      </c>
-      <c r="M33" s="3">
-        <v>400</v>
       </c>
       <c r="N33" s="3">
         <v>400</v>
@@ -2522,37 +2595,40 @@
         <v>400</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>300</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,40 +2701,43 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>700</v>
       </c>
       <c r="K35" s="3">
         <v>700</v>
       </c>
       <c r="L35" s="3">
+        <v>700</v>
+      </c>
+      <c r="M35" s="3">
         <v>900</v>
-      </c>
-      <c r="M35" s="3">
-        <v>400</v>
       </c>
       <c r="N35" s="3">
         <v>400</v>
@@ -2670,116 +2749,122 @@
         <v>400</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>300</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,64 +2920,65 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
         <v>900</v>
       </c>
       <c r="F41" s="3">
+        <v>900</v>
+      </c>
+      <c r="G41" s="3">
         <v>4500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
-      </c>
-      <c r="N41" s="3">
-        <v>600</v>
       </c>
       <c r="O41" s="3">
         <v>600</v>
       </c>
       <c r="P41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
-      </c>
-      <c r="U41" s="3">
-        <v>600</v>
       </c>
       <c r="V41" s="3">
         <v>600</v>
@@ -2900,16 +2987,19 @@
         <v>600</v>
       </c>
       <c r="X41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>700</v>
       </c>
       <c r="Z41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3">
         <v>9000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3065,73 +3161,76 @@
         <v>4200</v>
       </c>
       <c r="E44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F44" s="3">
         <v>2900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>1400</v>
       </c>
       <c r="H44" s="3">
         <v>1400</v>
       </c>
       <c r="I44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
-      </c>
-      <c r="L44" s="3">
-        <v>1200</v>
       </c>
       <c r="M44" s="3">
         <v>1200</v>
       </c>
       <c r="N44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O44" s="3">
         <v>1700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>1500</v>
       </c>
       <c r="P44" s="3">
         <v>1500</v>
       </c>
       <c r="Q44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R44" s="3">
         <v>1300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>400</v>
-      </c>
-      <c r="W44" s="3">
-        <v>200</v>
       </c>
       <c r="X44" s="3">
         <v>200</v>
       </c>
       <c r="Y44" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1300</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,22 +3238,22 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -3169,28 +3268,28 @@
         <v>300</v>
       </c>
       <c r="O45" s="3">
+        <v>300</v>
+      </c>
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>200</v>
       </c>
       <c r="R45" s="3">
         <v>200</v>
       </c>
       <c r="S45" s="3">
+        <v>200</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
-      </c>
-      <c r="V45" s="3">
-        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
@@ -3199,87 +3298,93 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E46" s="3">
         <v>14600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>3500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,93 +3457,99 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4300</v>
-      </c>
-      <c r="N48" s="3">
-        <v>4400</v>
       </c>
       <c r="O48" s="3">
         <v>4400</v>
       </c>
       <c r="P48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q48" s="3">
         <v>4600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
-      </c>
-      <c r="W48" s="3">
-        <v>1300</v>
       </c>
       <c r="X48" s="3">
         <v>1300</v>
       </c>
       <c r="Y48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>1600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E49" s="3">
         <v>10500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10600</v>
-      </c>
-      <c r="F49" s="3">
-        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>100</v>
@@ -3452,8 +3563,8 @@
       <c r="J49" s="3">
         <v>100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>10</v>
+      <c r="K49" s="3">
+        <v>100</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>10</v>
@@ -3470,8 +3581,8 @@
       <c r="P49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,32 +3765,35 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
@@ -3708,22 +3828,25 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>400</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3" t="s">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E54" s="3">
         <v>32700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>16000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>14000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>7300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>6800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,82 +4056,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E57" s="3">
         <v>7500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>2100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4009,10 +4143,10 @@
         <v>2500</v>
       </c>
       <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>2200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
@@ -4027,16 +4161,16 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
@@ -4048,45 +4182,48 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
+        <v>600</v>
+      </c>
+      <c r="S58" s="3">
         <v>4200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4700</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
         <v>400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>200</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -4095,7 +4232,7 @@
         <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
         <v>100</v>
@@ -4119,10 +4256,10 @@
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>10</v>
@@ -4130,8 +4267,8 @@
       <c r="T59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
+      <c r="U59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
@@ -4148,93 +4285,99 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E60" s="3">
         <v>10400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>4200</v>
       </c>
       <c r="N60" s="3">
         <v>4200</v>
       </c>
       <c r="O60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P60" s="3">
         <v>3800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>3600</v>
       </c>
       <c r="Q60" s="3">
         <v>3600</v>
       </c>
       <c r="R60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="S60" s="3">
         <v>8000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E61" s="3">
         <v>10900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>9600</v>
-      </c>
-      <c r="F61" s="3">
-        <v>400</v>
       </c>
       <c r="G61" s="3">
         <v>400</v>
@@ -4243,84 +4386,87 @@
         <v>400</v>
       </c>
       <c r="I61" s="3">
+        <v>400</v>
+      </c>
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4000</v>
-      </c>
-      <c r="N61" s="3">
-        <v>4800</v>
       </c>
       <c r="O61" s="3">
         <v>4800</v>
       </c>
       <c r="P61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q61" s="3">
         <v>5000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1600</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1300</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>2700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3300</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1400</v>
       </c>
       <c r="G62" s="3">
         <v>1400</v>
       </c>
       <c r="H62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I62" s="3">
         <v>1500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
-      </c>
-      <c r="J62" s="3">
-        <v>1300</v>
       </c>
       <c r="K62" s="3">
         <v>1300</v>
@@ -4329,7 +4475,7 @@
         <v>1300</v>
       </c>
       <c r="M62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="N62" s="3">
         <v>1400</v>
@@ -4338,13 +4484,13 @@
         <v>1400</v>
       </c>
       <c r="P62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q62" s="3">
         <v>1500</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>10</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>10</v>
@@ -4370,8 +4516,11 @@
       <c r="Z62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24600</v>
+      </c>
+      <c r="E66" s="3">
         <v>24500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>7400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>8900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>5500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>7700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-11000</v>
       </c>
       <c r="G72" s="3">
         <v>-11000</v>
       </c>
       <c r="H72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I72" s="3">
         <v>-11400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-17700</v>
       </c>
       <c r="R72" s="3">
         <v>-17700</v>
       </c>
       <c r="S72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="T72" s="3">
         <v>-18000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-17800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-18100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-14600</v>
       </c>
       <c r="X72" s="3">
         <v>-14600</v>
       </c>
       <c r="Y72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="Z72" s="3">
         <v>-18400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,8 +5469,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5295,73 +5481,76 @@
         <v>8200</v>
       </c>
       <c r="E76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F76" s="3">
         <v>8100</v>
-      </c>
-      <c r="F76" s="3">
-        <v>9400</v>
       </c>
       <c r="G76" s="3">
         <v>9400</v>
       </c>
       <c r="H76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="I76" s="3">
         <v>9000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>5600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>-1300</v>
       </c>
       <c r="R76" s="3">
         <v>-1300</v>
       </c>
       <c r="S76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T76" s="3">
         <v>-1700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-1500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,119 +5623,125 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>700</v>
       </c>
       <c r="K81" s="3">
         <v>700</v>
       </c>
       <c r="L81" s="3">
+        <v>700</v>
+      </c>
+      <c r="M81" s="3">
         <v>900</v>
-      </c>
-      <c r="M81" s="3">
-        <v>400</v>
       </c>
       <c r="N81" s="3">
         <v>400</v>
@@ -5558,37 +5753,40 @@
         <v>400</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>300</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5627,7 +5826,7 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
@@ -5648,13 +5847,13 @@
         <v>200</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -5675,22 +5874,25 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
+        <v>200</v>
+      </c>
+      <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1300</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,13 +6381,14 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
@@ -6176,13 +6397,13 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
@@ -6200,43 +6421,46 @@
         <v>-100</v>
       </c>
       <c r="O91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-600</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,28 +6610,31 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-10600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -6422,43 +6652,46 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,82 +7024,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>-400</v>
       </c>
       <c r="Q100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,49 +7178,52 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
@@ -6980,27 +7232,30 @@
         <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E8" s="3">
         <v>22800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>21800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>13900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10900</v>
       </c>
-      <c r="H8" s="3">
-        <v>12100</v>
-      </c>
       <c r="I8" s="3">
+        <v>22400</v>
+      </c>
+      <c r="J8" s="3">
         <v>10300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>9400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>10200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>9000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>8200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>12400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>5400</v>
       </c>
       <c r="Z8" s="3">
         <v>5400</v>
       </c>
       <c r="AA8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AB8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E9" s="3">
         <v>20200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>11600</v>
       </c>
-      <c r="G9" s="3">
-        <v>8200</v>
-      </c>
       <c r="H9" s="3">
-        <v>8800</v>
+        <v>8300</v>
       </c>
       <c r="I9" s="3">
+        <v>16100</v>
+      </c>
+      <c r="J9" s="3">
         <v>7100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>7300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>8100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3400</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>2700</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I10" s="3">
+        <v>6300</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="H10" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J10" s="3">
+      <c r="R10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="U10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V10" s="3">
+        <v>2800</v>
+      </c>
+      <c r="W10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M10" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N10" s="3">
+      <c r="X10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
-      <c r="O10" s="3">
-        <v>2900</v>
-      </c>
-      <c r="P10" s="3">
+      <c r="AA10" s="3">
         <v>2700</v>
       </c>
-      <c r="Q10" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2600</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2800</v>
-      </c>
-      <c r="V10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>2700</v>
-      </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1092,25 +1106,28 @@
         <v>0</v>
       </c>
       <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
       <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
         <v>100</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
       <c r="Z12" s="3">
         <v>0</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,123 +1392,127 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E17" s="3">
         <v>23700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>21600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>15200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="H17" s="3">
-        <v>11500</v>
-      </c>
       <c r="I17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="J17" s="3">
         <v>9500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>7600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>7700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>7200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>11800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
-      </c>
-      <c r="K18" s="3">
-        <v>800</v>
       </c>
       <c r="L18" s="3">
         <v>800</v>
       </c>
       <c r="M18" s="3">
+        <v>800</v>
+      </c>
+      <c r="N18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>500</v>
       </c>
       <c r="P18" s="3">
         <v>500</v>
@@ -1491,37 +1521,40 @@
         <v>500</v>
       </c>
       <c r="R18" s="3">
+        <v>500</v>
+      </c>
+      <c r="S18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1558,7 +1592,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1570,20 +1604,20 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1612,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X20" s="3">
         <v>-100</v>
@@ -1621,101 +1655,107 @@
         <v>-100</v>
       </c>
       <c r="Z20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
-        <v>800</v>
-      </c>
       <c r="I21" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="J21" s="3">
         <v>1100</v>
       </c>
       <c r="K21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>700</v>
-      </c>
-      <c r="O21" s="3">
-        <v>600</v>
       </c>
       <c r="P21" s="3">
         <v>600</v>
       </c>
       <c r="Q21" s="3">
+        <v>600</v>
+      </c>
+      <c r="R21" s="3">
         <v>700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1726,23 +1766,23 @@
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>100</v>
@@ -1751,16 +1791,16 @@
         <v>100</v>
       </c>
       <c r="R22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>200</v>
       </c>
       <c r="T22" s="3">
+        <v>200</v>
+      </c>
+      <c r="U22" s="3">
         <v>300</v>
-      </c>
-      <c r="U22" s="3">
-        <v>200</v>
       </c>
       <c r="V22" s="3">
         <v>200</v>
@@ -1769,54 +1809,57 @@
         <v>200</v>
       </c>
       <c r="X22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>200</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="J23" s="3">
         <v>900</v>
       </c>
       <c r="K23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L23" s="3">
         <v>700</v>
       </c>
       <c r="M23" s="3">
+        <v>700</v>
+      </c>
+      <c r="N23" s="3">
         <v>900</v>
-      </c>
-      <c r="N23" s="3">
-        <v>400</v>
       </c>
       <c r="O23" s="3">
         <v>400</v>
@@ -1828,64 +1871,67 @@
         <v>400</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>300</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>400</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1895,14 +1941,14 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>10</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,43 +2060,46 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>700</v>
       </c>
       <c r="L26" s="3">
         <v>700</v>
       </c>
       <c r="M26" s="3">
+        <v>700</v>
+      </c>
+      <c r="N26" s="3">
         <v>900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>400</v>
       </c>
       <c r="O26" s="3">
         <v>400</v>
@@ -2059,72 +2111,75 @@
         <v>400</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>300</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>700</v>
       </c>
       <c r="L27" s="3">
         <v>700</v>
       </c>
       <c r="M27" s="3">
+        <v>700</v>
+      </c>
+      <c r="N27" s="3">
         <v>900</v>
-      </c>
-      <c r="N27" s="3">
-        <v>400</v>
       </c>
       <c r="O27" s="3">
         <v>400</v>
@@ -2136,37 +2191,40 @@
         <v>400</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>300</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,7 +2552,7 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2494,20 +2564,20 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2536,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X32" s="3">
         <v>100</v>
@@ -2545,48 +2615,51 @@
         <v>100</v>
       </c>
       <c r="Z32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>700</v>
       </c>
       <c r="L33" s="3">
         <v>700</v>
       </c>
       <c r="M33" s="3">
+        <v>700</v>
+      </c>
+      <c r="N33" s="3">
         <v>900</v>
-      </c>
-      <c r="N33" s="3">
-        <v>400</v>
       </c>
       <c r="O33" s="3">
         <v>400</v>
@@ -2598,37 +2671,40 @@
         <v>400</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>300</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
         <v>0</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,43 +2780,46 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>700</v>
       </c>
       <c r="L35" s="3">
         <v>700</v>
       </c>
       <c r="M35" s="3">
+        <v>700</v>
+      </c>
+      <c r="N35" s="3">
         <v>900</v>
-      </c>
-      <c r="N35" s="3">
-        <v>400</v>
       </c>
       <c r="O35" s="3">
         <v>400</v>
@@ -2752,119 +2831,125 @@
         <v>400</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>300</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
         <v>0</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,67 +3007,68 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
-      </c>
-      <c r="E41" s="3">
-        <v>900</v>
       </c>
       <c r="F41" s="3">
         <v>900</v>
       </c>
       <c r="G41" s="3">
+        <v>900</v>
+      </c>
+      <c r="H41" s="3">
         <v>4500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
-      </c>
-      <c r="O41" s="3">
-        <v>600</v>
       </c>
       <c r="P41" s="3">
         <v>600</v>
       </c>
       <c r="Q41" s="3">
+        <v>600</v>
+      </c>
+      <c r="R41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>500</v>
-      </c>
-      <c r="V41" s="3">
-        <v>600</v>
       </c>
       <c r="W41" s="3">
         <v>600</v>
@@ -2990,16 +3077,19 @@
         <v>600</v>
       </c>
       <c r="Y41" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z41" s="3">
         <v>400</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>700</v>
       </c>
       <c r="AA41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3084,179 +3177,185 @@
         <v>6900</v>
       </c>
       <c r="E43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F43" s="3">
         <v>9000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>7600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>4000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>4000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>4400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="E44" s="3">
         <v>4200</v>
       </c>
       <c r="F44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="G44" s="3">
         <v>2900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>1400</v>
       </c>
       <c r="I44" s="3">
         <v>1400</v>
       </c>
       <c r="J44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
-      </c>
-      <c r="M44" s="3">
-        <v>1200</v>
       </c>
       <c r="N44" s="3">
         <v>1200</v>
       </c>
       <c r="O44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P44" s="3">
         <v>1700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>1500</v>
       </c>
       <c r="Q44" s="3">
         <v>1500</v>
       </c>
       <c r="R44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S44" s="3">
         <v>1300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>400</v>
-      </c>
-      <c r="X44" s="3">
-        <v>200</v>
       </c>
       <c r="Y44" s="3">
         <v>200</v>
       </c>
       <c r="Z44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1300</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
@@ -3271,28 +3370,28 @@
         <v>300</v>
       </c>
       <c r="P45" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>300</v>
-      </c>
-      <c r="R45" s="3">
-        <v>200</v>
       </c>
       <c r="S45" s="3">
         <v>200</v>
       </c>
       <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>300</v>
-      </c>
-      <c r="W45" s="3">
-        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>100</v>
@@ -3301,90 +3400,96 @@
         <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E46" s="3">
         <v>13500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>4700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>4800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,99 +3565,105 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>4700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4300</v>
-      </c>
-      <c r="O48" s="3">
-        <v>4400</v>
       </c>
       <c r="P48" s="3">
         <v>4400</v>
       </c>
       <c r="Q48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R48" s="3">
         <v>4600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
-      </c>
-      <c r="X48" s="3">
-        <v>1300</v>
       </c>
       <c r="Y48" s="3">
         <v>1300</v>
       </c>
       <c r="Z48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA48" s="3">
         <v>1600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E49" s="3">
         <v>10400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>100</v>
@@ -3566,8 +3677,8 @@
       <c r="K49" s="3">
         <v>100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>10</v>
+      <c r="L49" s="3">
+        <v>100</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>10</v>
@@ -3584,8 +3695,8 @@
       <c r="Q49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,35 +3885,38 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
-      </c>
-      <c r="E52" s="3">
-        <v>500</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
@@ -3831,22 +3951,25 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>400</v>
       </c>
-      <c r="Z52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="3" t="s">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E54" s="3">
         <v>32800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>30000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>16000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>15300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>14000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>8000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>8400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>7300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>6800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E57" s="3">
         <v>7600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,10 +4280,10 @@
         <v>2500</v>
       </c>
       <c r="F58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="G58" s="3">
         <v>2200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -4164,16 +4298,16 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -4185,48 +4319,51 @@
         <v>600</v>
       </c>
       <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>4200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3400</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -4235,7 +4372,7 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
         <v>100</v>
@@ -4259,10 +4396,10 @@
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>10</v>
@@ -4270,8 +4407,8 @@
       <c r="U59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V59" s="3">
-        <v>0</v>
+      <c r="V59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
@@ -4288,99 +4425,105 @@
       <c r="AA59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>11000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>9000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4700</v>
-      </c>
-      <c r="N60" s="3">
-        <v>4200</v>
       </c>
       <c r="O60" s="3">
         <v>4200</v>
       </c>
       <c r="P60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3600</v>
       </c>
       <c r="R60" s="3">
         <v>3600</v>
       </c>
       <c r="S60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="T60" s="3">
         <v>8000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>4200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E61" s="3">
         <v>10500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>9600</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
@@ -4389,87 +4532,90 @@
         <v>400</v>
       </c>
       <c r="J61" s="3">
+        <v>400</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>4300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>4800</v>
       </c>
       <c r="P61" s="3">
         <v>4800</v>
       </c>
       <c r="Q61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="R61" s="3">
         <v>5000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1300</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>2700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E62" s="3">
         <v>3100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3300</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1400</v>
       </c>
       <c r="H62" s="3">
         <v>1400</v>
       </c>
       <c r="I62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J62" s="3">
         <v>1500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
-      </c>
-      <c r="K62" s="3">
-        <v>1300</v>
       </c>
       <c r="L62" s="3">
         <v>1300</v>
@@ -4478,7 +4624,7 @@
         <v>1300</v>
       </c>
       <c r="N62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="O62" s="3">
         <v>1400</v>
@@ -4487,13 +4633,13 @@
         <v>1400</v>
       </c>
       <c r="Q62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R62" s="3">
         <v>1500</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>10</v>
+      <c r="S62" s="3">
+        <v>0</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>10</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22700</v>
+      </c>
+      <c r="E66" s="3">
         <v>24600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>7400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>10300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>10400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>8900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>8500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>6000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>7700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-11000</v>
       </c>
       <c r="H72" s="3">
         <v>-11000</v>
       </c>
       <c r="I72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-11400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-17700</v>
       </c>
       <c r="S72" s="3">
         <v>-17700</v>
       </c>
       <c r="T72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="U72" s="3">
         <v>-18000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-17800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-18100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-14600</v>
       </c>
       <c r="Y72" s="3">
         <v>-14600</v>
       </c>
       <c r="Z72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-18400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>8200</v>
+        <v>10400</v>
       </c>
       <c r="E76" s="3">
         <v>8200</v>
       </c>
       <c r="F76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G76" s="3">
         <v>8100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>9400</v>
       </c>
       <c r="H76" s="3">
         <v>9400</v>
       </c>
       <c r="I76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="J76" s="3">
         <v>9000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>5600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-800</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-1300</v>
       </c>
       <c r="S76" s="3">
         <v>-1300</v>
       </c>
       <c r="T76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="U76" s="3">
         <v>-1700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-1500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,125 +5815,131 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>700</v>
       </c>
       <c r="L81" s="3">
         <v>700</v>
       </c>
       <c r="M81" s="3">
+        <v>700</v>
+      </c>
+      <c r="N81" s="3">
         <v>900</v>
-      </c>
-      <c r="N81" s="3">
-        <v>400</v>
       </c>
       <c r="O81" s="3">
         <v>400</v>
@@ -5756,37 +5951,40 @@
         <v>400</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>300</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
         <v>0</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,13 +6012,14 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -5829,13 +6028,13 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
@@ -5850,13 +6049,13 @@
         <v>200</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -5877,22 +6076,25 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
+        <v>200</v>
+      </c>
+      <c r="X83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>1200</v>
+      </c>
+      <c r="O89" s="3">
+        <v>800</v>
+      </c>
+      <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K89" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
-      </c>
-      <c r="M89" s="3">
-        <v>1200</v>
-      </c>
-      <c r="N89" s="3">
-        <v>800</v>
-      </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
+        <v>700</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>700</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1300</v>
-      </c>
-      <c r="U89" s="3">
-        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>100</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,16 +6602,17 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -6400,13 +6621,13 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
@@ -6424,43 +6645,46 @@
         <v>-100</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-800</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,31 +6840,34 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-10600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
       <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
         <v>-400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -6655,43 +6885,46 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-800</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,85 +7270,91 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>1600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>8100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>-400</v>
       </c>
       <c r="R100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>-900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,52 +7430,55 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E102" s="3">
         <v>1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
       </c>
       <c r="I102" s="3">
         <v>1100</v>
       </c>
       <c r="J102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
@@ -7235,27 +7487,30 @@
         <v>100</v>
       </c>
       <c r="T102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>400</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MMMB_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,372 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E8" s="3">
         <v>25700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>22800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>21800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>13900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>22400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>10300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>9900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>10200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>10800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>9000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>9300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>8200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>7800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>7400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>12400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>5400</v>
       </c>
       <c r="AA8" s="3">
         <v>5400</v>
       </c>
       <c r="AB8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="AC8" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E9" s="3">
         <v>19200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>20200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>18100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>11600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>8300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>16100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>7100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>7300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>7500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>7000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>5000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>8100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3400</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>2700</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>3000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>4300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1067,11 +1081,11 @@
         <v>0</v>
       </c>
       <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
@@ -1109,25 +1123,28 @@
         <v>0</v>
       </c>
       <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
         <v>100</v>
       </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
       <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
         <v>100</v>
       </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
       <c r="AA12" s="3">
         <v>0</v>
       </c>
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1268,8 +1288,8 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>10</v>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>10</v>
@@ -1280,14 +1300,17 @@
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,129 +1419,133 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E17" s="3">
         <v>24200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>23700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>21600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>10900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>20900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>7700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>7200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>7700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>7100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>11800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>5000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>900</v>
-      </c>
-      <c r="L18" s="3">
-        <v>800</v>
       </c>
       <c r="M18" s="3">
         <v>800</v>
       </c>
       <c r="N18" s="3">
+        <v>800</v>
+      </c>
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
-      </c>
-      <c r="P18" s="3">
-        <v>500</v>
       </c>
       <c r="Q18" s="3">
         <v>500</v>
@@ -1524,37 +1554,40 @@
         <v>500</v>
       </c>
       <c r="S18" s="3">
+        <v>500</v>
+      </c>
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1595,7 +1629,7 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1607,20 +1641,20 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1649,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="3">
         <v>-100</v>
@@ -1658,93 +1692,99 @@
         <v>-100</v>
       </c>
       <c r="AA20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>1100</v>
       </c>
       <c r="K21" s="3">
         <v>1100</v>
       </c>
       <c r="L21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
-      </c>
-      <c r="P21" s="3">
-        <v>600</v>
       </c>
       <c r="Q21" s="3">
         <v>600</v>
       </c>
       <c r="R21" s="3">
+        <v>600</v>
+      </c>
+      <c r="S21" s="3">
         <v>700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1752,13 +1792,13 @@
         <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1769,23 +1809,23 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>100</v>
       </c>
       <c r="O22" s="3">
+        <v>100</v>
+      </c>
+      <c r="P22" s="3">
         <v>200</v>
-      </c>
-      <c r="P22" s="3">
-        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>100</v>
@@ -1794,16 +1834,16 @@
         <v>100</v>
       </c>
       <c r="S22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>200</v>
       </c>
       <c r="U22" s="3">
+        <v>200</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
-      </c>
-      <c r="V22" s="3">
-        <v>200</v>
       </c>
       <c r="W22" s="3">
         <v>200</v>
@@ -1812,57 +1852,60 @@
         <v>200</v>
       </c>
       <c r="Y22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>200</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>1500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>900</v>
       </c>
       <c r="K23" s="3">
         <v>900</v>
       </c>
       <c r="L23" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="M23" s="3">
         <v>700</v>
       </c>
       <c r="N23" s="3">
+        <v>700</v>
+      </c>
+      <c r="O23" s="3">
         <v>900</v>
-      </c>
-      <c r="O23" s="3">
-        <v>400</v>
       </c>
       <c r="P23" s="3">
         <v>400</v>
@@ -1874,67 +1917,70 @@
         <v>400</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
       <c r="AA23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1944,14 +1990,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>10</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,46 +2112,49 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E26" s="3">
         <v>1100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1300</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>1100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1700</v>
-      </c>
-      <c r="L26" s="3">
-        <v>700</v>
       </c>
       <c r="M26" s="3">
         <v>700</v>
       </c>
       <c r="N26" s="3">
+        <v>700</v>
+      </c>
+      <c r="O26" s="3">
         <v>900</v>
-      </c>
-      <c r="O26" s="3">
-        <v>400</v>
       </c>
       <c r="P26" s="3">
         <v>400</v>
@@ -2114,75 +2166,78 @@
         <v>400</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>300</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
       <c r="AA26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E27" s="3">
         <v>1100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1300</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>1100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1700</v>
-      </c>
-      <c r="L27" s="3">
-        <v>700</v>
       </c>
       <c r="M27" s="3">
         <v>700</v>
       </c>
       <c r="N27" s="3">
+        <v>700</v>
+      </c>
+      <c r="O27" s="3">
         <v>900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>400</v>
       </c>
       <c r="P27" s="3">
         <v>400</v>
@@ -2194,37 +2249,40 @@
         <v>400</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>300</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2555,7 +2625,7 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2567,20 +2637,20 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2609,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="3">
         <v>100</v>
@@ -2618,51 +2688,54 @@
         <v>100</v>
       </c>
       <c r="AA32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E33" s="3">
         <v>1100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1300</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>1100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>700</v>
       </c>
       <c r="M33" s="3">
         <v>700</v>
       </c>
       <c r="N33" s="3">
+        <v>700</v>
+      </c>
+      <c r="O33" s="3">
         <v>900</v>
-      </c>
-      <c r="O33" s="3">
-        <v>400</v>
       </c>
       <c r="P33" s="3">
         <v>400</v>
@@ -2674,37 +2747,40 @@
         <v>400</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>300</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AB33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,46 +2859,49 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="3">
         <v>1100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1300</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>1100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>700</v>
       </c>
       <c r="M35" s="3">
         <v>700</v>
       </c>
       <c r="N35" s="3">
+        <v>700</v>
+      </c>
+      <c r="O35" s="3">
         <v>900</v>
-      </c>
-      <c r="O35" s="3">
-        <v>400</v>
       </c>
       <c r="P35" s="3">
         <v>400</v>
@@ -2834,122 +2913,128 @@
         <v>400</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>300</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AB35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,70 +3094,71 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E41" s="3">
         <v>3500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
-      </c>
-      <c r="F41" s="3">
-        <v>900</v>
       </c>
       <c r="G41" s="3">
         <v>900</v>
       </c>
       <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>4500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
-      </c>
-      <c r="P41" s="3">
-        <v>600</v>
       </c>
       <c r="Q41" s="3">
         <v>600</v>
       </c>
       <c r="R41" s="3">
+        <v>600</v>
+      </c>
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>500</v>
-      </c>
-      <c r="W41" s="3">
-        <v>600</v>
       </c>
       <c r="X41" s="3">
         <v>600</v>
@@ -3080,16 +3167,19 @@
         <v>600</v>
       </c>
       <c r="Z41" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA41" s="3">
         <v>400</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>700</v>
       </c>
       <c r="AB41" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,88 +3258,94 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="E43" s="3">
         <v>6900</v>
       </c>
       <c r="F43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G43" s="3">
         <v>9000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>7600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>4400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>4700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>4300</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3257,108 +3353,111 @@
         <v>3600</v>
       </c>
       <c r="E44" s="3">
-        <v>4200</v>
+        <v>3600</v>
       </c>
       <c r="F44" s="3">
         <v>4200</v>
       </c>
       <c r="G44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H44" s="3">
         <v>2900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>1600</v>
-      </c>
-      <c r="I44" s="3">
-        <v>1400</v>
       </c>
       <c r="J44" s="3">
         <v>1400</v>
       </c>
       <c r="K44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L44" s="3">
         <v>1200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
-      </c>
-      <c r="N44" s="3">
-        <v>1200</v>
       </c>
       <c r="O44" s="3">
         <v>1200</v>
       </c>
       <c r="P44" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>1500</v>
       </c>
       <c r="R44" s="3">
         <v>1500</v>
       </c>
       <c r="S44" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T44" s="3">
         <v>1300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>400</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>200</v>
       </c>
       <c r="Z44" s="3">
         <v>200</v>
       </c>
       <c r="AA44" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB44" s="3">
         <v>1300</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
@@ -3373,28 +3472,28 @@
         <v>300</v>
       </c>
       <c r="Q45" s="3">
+        <v>300</v>
+      </c>
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>300</v>
-      </c>
-      <c r="S45" s="3">
-        <v>200</v>
       </c>
       <c r="T45" s="3">
         <v>200</v>
       </c>
       <c r="U45" s="3">
+        <v>200</v>
+      </c>
+      <c r="V45" s="3">
         <v>300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>300</v>
-      </c>
-      <c r="X45" s="3">
-        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
@@ -3403,93 +3502,99 @@
         <v>100</v>
       </c>
       <c r="AA45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E46" s="3">
         <v>14300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>10900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>4700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>3700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>5000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3500</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5300</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,105 +3673,111 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E48" s="3">
         <v>6900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>4700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>4600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>4800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>4400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4300</v>
-      </c>
-      <c r="P48" s="3">
-        <v>4400</v>
       </c>
       <c r="Q48" s="3">
         <v>4400</v>
       </c>
       <c r="R48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="S48" s="3">
         <v>4600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>1300</v>
       </c>
       <c r="Z48" s="3">
         <v>1300</v>
       </c>
       <c r="AA48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AB48" s="3">
         <v>1600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E49" s="3">
         <v>10300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>10400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>10500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>10600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>100</v>
       </c>
       <c r="I49" s="3">
         <v>100</v>
@@ -3680,8 +3791,8 @@
       <c r="L49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>10</v>
+      <c r="M49" s="3">
+        <v>100</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
@@ -3698,8 +3809,8 @@
       <c r="R49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,38 +4005,41 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
       </c>
       <c r="H52" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -3954,22 +4074,25 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>400</v>
       </c>
-      <c r="AA52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="3" t="s">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E54" s="3">
         <v>33200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>32700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>16000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>14000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>11800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>8000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>6800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>8400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>7300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>7600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>7500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>6800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>6300</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,93 +4318,97 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E57" s="3">
         <v>8100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>7600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="E58" s="3">
         <v>2500</v>
@@ -4283,10 +4417,10 @@
         <v>2500</v>
       </c>
       <c r="G58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H58" s="3">
         <v>2200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -4301,16 +4435,16 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4322,51 +4456,54 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>4200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>4700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3400</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>2900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>3100</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>400</v>
+      </c>
+      <c r="E59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -4375,7 +4512,7 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
@@ -4399,10 +4536,10 @@
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>10</v>
+        <v>100</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3" t="s">
         <v>10</v>
@@ -4410,8 +4547,8 @@
       <c r="V59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
+      <c r="W59" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -4428,105 +4565,111 @@
       <c r="AB59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>11000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>9000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4700</v>
-      </c>
-      <c r="O60" s="3">
-        <v>4200</v>
       </c>
       <c r="P60" s="3">
         <v>4200</v>
       </c>
       <c r="Q60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="R60" s="3">
         <v>3800</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3600</v>
       </c>
       <c r="S60" s="3">
         <v>3600</v>
       </c>
       <c r="T60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U60" s="3">
         <v>8000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>8600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>5600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>4200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E61" s="3">
         <v>8600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>10500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>10900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>9600</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
@@ -4535,90 +4678,93 @@
         <v>400</v>
       </c>
       <c r="K61" s="3">
+        <v>400</v>
+      </c>
+      <c r="L61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>4800</v>
       </c>
       <c r="Q61" s="3">
         <v>4800</v>
       </c>
       <c r="R61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="S61" s="3">
         <v>5000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1300</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>2700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E62" s="3">
         <v>3000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3300</v>
-      </c>
-      <c r="H62" s="3">
-        <v>1400</v>
       </c>
       <c r="I62" s="3">
         <v>1400</v>
       </c>
       <c r="J62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K62" s="3">
         <v>1500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1300</v>
       </c>
       <c r="M62" s="3">
         <v>1300</v>
@@ -4627,7 +4773,7 @@
         <v>1300</v>
       </c>
       <c r="O62" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="P62" s="3">
         <v>1400</v>
@@ -4636,13 +4782,13 @@
         <v>1400</v>
       </c>
       <c r="R62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S62" s="3">
         <v>1500</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>10</v>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>10</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E66" s="3">
         <v>22700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>7400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>10300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>9500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>10200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>8900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>9300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>8500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>9200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>6000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>6200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>7700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-11900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-11000</v>
       </c>
       <c r="I72" s="3">
         <v>-11000</v>
       </c>
       <c r="J72" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-11400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-13800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-17200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-17700</v>
       </c>
       <c r="T72" s="3">
         <v>-17700</v>
       </c>
       <c r="U72" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="V72" s="3">
         <v>-18000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-17800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-18100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14400</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-14600</v>
       </c>
       <c r="Z72" s="3">
         <v>-14600</v>
       </c>
       <c r="AA72" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-18400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-14800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E76" s="3">
         <v>10400</v>
-      </c>
-      <c r="E76" s="3">
-        <v>8200</v>
       </c>
       <c r="F76" s="3">
         <v>8200</v>
       </c>
       <c r="G76" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H76" s="3">
         <v>8100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>9400</v>
       </c>
       <c r="I76" s="3">
         <v>9400</v>
       </c>
       <c r="J76" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K76" s="3">
         <v>9000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-800</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-1300</v>
       </c>
       <c r="T76" s="3">
         <v>-1300</v>
       </c>
       <c r="U76" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="V76" s="3">
         <v>-1700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,131 +6007,137 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E81" s="3">
         <v>1100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1300</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>1100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>700</v>
       </c>
       <c r="M81" s="3">
         <v>700</v>
       </c>
       <c r="N81" s="3">
+        <v>700</v>
+      </c>
+      <c r="O81" s="3">
         <v>900</v>
-      </c>
-      <c r="O81" s="3">
-        <v>400</v>
       </c>
       <c r="P81" s="3">
         <v>400</v>
@@ -5954,37 +6149,40 @@
         <v>400</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>300</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AB81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6022,7 +6221,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -6031,13 +6230,13 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
@@ -6052,13 +6251,13 @@
         <v>200</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -6079,22 +6278,25 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>200</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1300</v>
-      </c>
-      <c r="V89" s="3">
-        <v>100</v>
       </c>
       <c r="W89" s="3">
         <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,19 +6823,20 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -6624,13 +6845,13 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
@@ -6648,43 +6869,46 @@
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
         <v>200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-800</v>
       </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,34 +7070,37 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -6888,43 +7118,46 @@
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>8100</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>-100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>-400</v>
       </c>
       <c r="S100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,55 +7682,58 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>1100</v>
       </c>
       <c r="J102" s="3">
         <v>1100</v>
       </c>
       <c r="K102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>100</v>
       </c>
       <c r="S102" s="3">
         <v>100</v>
@@ -7490,27 +7742,30 @@
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
         <v>-100</v>
       </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
-        <v>0</v>
-      </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>400</v>
       </c>
     </row>
